--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>826213.18722507</v>
+        <v>824760.5449175378</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6555502.560892541</v>
+        <v>6555502.560892536</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9074812.134607151</v>
+        <v>9074812.134607155</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>280.5085134998938</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>388.6597985499425</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>129.0564489160606</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>141.9940740615536</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -910,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>166.4613601696866</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>149.7358196273226</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.550599122546</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>162.3882686062623</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>101.6945967075517</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>91.04473440253275</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>227.2370446669671</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>246.879232708246</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507667</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1612,22 +1612,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.4292778809202</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>91.92803739734498</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>59.82422708687625</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.1930870720701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>265.7345771113586</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>116.0240661065096</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678452</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2338,7 +2338,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I23" t="n">
-        <v>71.9497084054367</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I24" t="n">
-        <v>14.07197276257017</v>
+        <v>14.07197276257016</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.2318136816455</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678452</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -2575,7 +2575,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I26" t="n">
-        <v>71.94970840543672</v>
+        <v>71.94970840543731</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I27" t="n">
-        <v>14.07197276257018</v>
+        <v>14.07197276257016</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>77.33716558595377</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.4801970412658</v>
@@ -2781,7 +2781,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.2123875306408</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I29" t="n">
-        <v>71.94970840543672</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I30" t="n">
-        <v>14.07197276257018</v>
+        <v>14.07197276257016</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.4203637486101</v>
       </c>
       <c r="H31" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4454267352886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>168.0586800520311</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>186.7038955754357</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3049,7 +3049,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I32" t="n">
-        <v>71.94970840543733</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T32" t="n">
-        <v>218.4471662669313</v>
+        <v>218.4471662669338</v>
       </c>
       <c r="U32" t="n">
         <v>254.4617931084866</v>
@@ -3128,7 +3128,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I33" t="n">
-        <v>14.07197276257018</v>
+        <v>14.07197276257016</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>279.9615737930588</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>19.86316061584867</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3286,7 +3286,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I35" t="n">
-        <v>71.94970840543731</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>125.9259454362165</v>
       </c>
       <c r="T35" t="n">
-        <v>218.4471662669313</v>
+        <v>218.4471662669338</v>
       </c>
       <c r="U35" t="n">
         <v>254.4617931084866</v>
@@ -3365,7 +3365,7 @@
         <v>68.22508730433928</v>
       </c>
       <c r="I36" t="n">
-        <v>14.07197276257018</v>
+        <v>14.07197276257016</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.33716558595377</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>236.4801970412658</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9615737930588</v>
+        <v>238.982722877403</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>108.2123875306399</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>406.1189678678452</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>304.2029779656798</v>
       </c>
       <c r="I38" t="n">
-        <v>71.94970840543556</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>125.9259454362166</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T38" t="n">
         <v>218.4471662669313</v>
@@ -3599,10 +3599,10 @@
         <v>105.732318277738</v>
       </c>
       <c r="H39" t="n">
-        <v>68.2250873043393</v>
+        <v>68.22508730433928</v>
       </c>
       <c r="I39" t="n">
-        <v>14.07197276257019</v>
+        <v>14.07197276257017</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>50.13079482888833</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V40" t="n">
-        <v>256.3428559538071</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>100.978317110691</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.2029779656798</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>51.23713225349812</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>125.9259454362166</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T41" t="n">
         <v>218.4471662669313</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4617931084866</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3836,10 +3836,10 @@
         <v>105.732318277738</v>
       </c>
       <c r="H42" t="n">
-        <v>68.2250873043393</v>
+        <v>68.22508730433928</v>
       </c>
       <c r="I42" t="n">
-        <v>14.07197276257019</v>
+        <v>14.07197276257017</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.7108542792373</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.18889879181058</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3982,22 +3982,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>97.10777788494418</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>404.2898298336167</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>304.2029779656798</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>71.94970840543668</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>125.9259454362166</v>
+        <v>125.9259454362165</v>
       </c>
       <c r="T44" t="n">
         <v>218.4471662669313</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4617931084866</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>371.740399796477</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4073,10 +4073,10 @@
         <v>105.732318277738</v>
       </c>
       <c r="H45" t="n">
-        <v>68.2250873043393</v>
+        <v>68.22508730433928</v>
       </c>
       <c r="I45" t="n">
-        <v>14.07197276257019</v>
+        <v>14.07197276257017</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>144.8438584144482</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.4203637486101</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>74.29493734574238</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4454267352887</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>77.33716558595378</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.4801970412658</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9615737930588</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.2909016982387</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C2" t="n">
-        <v>478.2067150519129</v>
+        <v>466.3284402459254</v>
       </c>
       <c r="D2" t="n">
-        <v>477.7831891853775</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>467.4833777426783</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
         <v>46.45296569636579</v>
@@ -4333,49 +4333,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="M2" t="n">
         <v>812.7934917636817</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="O2" t="n">
         <v>1329.636426430007</v>
       </c>
-      <c r="M2" t="n">
-        <v>1767.09327468481</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1767.09327468481</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1767.09327468481</v>
-      </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1569.212905409372</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.569507578324</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y2" t="n">
-        <v>767.6328345264143</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>158.3214934345131</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.22713412386</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1101.974066676486</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>971.614017266324</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>692.5443527751984</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>454.2004906348818</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.4647920236465</v>
+        <v>224.1971997769844</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1455.826617762472</v>
+        <v>1117.687900192967</v>
       </c>
       <c r="C5" t="n">
-        <v>1449.742431116146</v>
+        <v>1111.603713546641</v>
       </c>
       <c r="D5" t="n">
-        <v>1045.278501209206</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>630.938285726103</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>209.9078736797906</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>216.5644706858345</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L5" t="n">
-        <v>216.5644706858345</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1866.047797426961</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1866.047797426961</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X5" t="n">
-        <v>1866.047797426961</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y5" t="n">
-        <v>1866.047797426961</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>353.9242034151438</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>353.9242034151438</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6759007612826</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>871.3377300465861</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>592.2680655554605</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>353.9242034151438</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>353.9242034151438</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.25049765783463</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C8" t="n">
-        <v>74.16631101150881</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D8" t="n">
-        <v>73.74278514497341</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E8" t="n">
-        <v>63.44297370227418</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,16 +4807,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="V8" t="n">
-        <v>1259.149751022952</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="W8" t="n">
-        <v>875.3894501581206</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X8" t="n">
-        <v>474.7460523270731</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y8" t="n">
-        <v>474.7460523270731</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>158.3214934345131</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L9" t="n">
         <v>675.1644281008383</v>
       </c>
       <c r="M9" t="n">
+        <v>675.1644281008383</v>
+      </c>
+      <c r="N9" t="n">
+        <v>675.1644281008383</v>
+      </c>
+      <c r="O9" t="n">
         <v>1192.007362767164</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1708.850297433489</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
         <v>1708.850297433489</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>212.8584580678856</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C10" t="n">
-        <v>41.76508562960205</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D10" t="n">
-        <v>41.76508562960205</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E10" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.615243227154</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.893428371041</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>955.0076833105632</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>675.9380188194375</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>437.5941566791208</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.8584580678856</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1537.18464568991</v>
+        <v>1819.812279557427</v>
       </c>
       <c r="C11" t="n">
-        <v>1127.06005500318</v>
+        <v>1409.687688870697</v>
       </c>
       <c r="D11" t="n">
-        <v>897.5276866527081</v>
+        <v>1409.687688870697</v>
       </c>
       <c r="E11" t="n">
-        <v>897.5276866527081</v>
+        <v>995.3474733875939</v>
       </c>
       <c r="F11" t="n">
-        <v>476.4972746063956</v>
+        <v>574.3170613412815</v>
       </c>
       <c r="G11" t="n">
-        <v>476.4972746063956</v>
+        <v>165.5887772341136</v>
       </c>
       <c r="H11" t="n">
         <v>165.5887772341136</v>
       </c>
       <c r="I11" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="J11" t="n">
         <v>333.4224860189411</v>
       </c>
       <c r="K11" t="n">
-        <v>333.4224860189411</v>
+        <v>871.5819871279806</v>
       </c>
       <c r="L11" t="n">
-        <v>897.8459131078533</v>
+        <v>897.845913107852</v>
       </c>
       <c r="M11" t="n">
-        <v>1674.164504099607</v>
+        <v>1674.164504099606</v>
       </c>
       <c r="N11" t="n">
-        <v>2427.345520738225</v>
+        <v>2427.345520738224</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.97637715533</v>
+        <v>3070.976377155329</v>
       </c>
       <c r="P11" t="n">
-        <v>3600.133075074482</v>
+        <v>3600.133075074481</v>
       </c>
       <c r="Q11" t="n">
-        <v>3921.294081869774</v>
+        <v>3921.294081869773</v>
       </c>
       <c r="R11" t="n">
-        <v>3961.850727559339</v>
+        <v>3961.850727559337</v>
       </c>
       <c r="S11" t="n">
-        <v>3961.850727559339</v>
+        <v>3826.569652353438</v>
       </c>
       <c r="T11" t="n">
-        <v>3739.644243506198</v>
+        <v>3604.363168300297</v>
       </c>
       <c r="U11" t="n">
-        <v>3482.583751765708</v>
+        <v>3354.990205968736</v>
       </c>
       <c r="V11" t="n">
-        <v>3132.746197102188</v>
+        <v>3005.152651305216</v>
       </c>
       <c r="W11" t="n">
-        <v>2748.985896237357</v>
+        <v>2621.392350440385</v>
       </c>
       <c r="X11" t="n">
-        <v>2348.342498406309</v>
+        <v>2220.748952609337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.405825354399</v>
+        <v>1819.812279557427</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>170.7328188952305</v>
       </c>
       <c r="H12" t="n">
-        <v>99.9856059309466</v>
+        <v>99.98560593094658</v>
       </c>
       <c r="I12" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="J12" t="n">
-        <v>79.23701455118677</v>
+        <v>272.04987211382</v>
       </c>
       <c r="K12" t="n">
-        <v>535.0432708164855</v>
+        <v>272.04987211382</v>
       </c>
       <c r="L12" t="n">
-        <v>1196.131442735774</v>
+        <v>272.04987211382</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.020317913157</v>
+        <v>272.04987211382</v>
       </c>
       <c r="N12" t="n">
-        <v>1564.020317913157</v>
+        <v>510.218762683279</v>
       </c>
       <c r="O12" t="n">
-        <v>1564.020317913157</v>
+        <v>1214.175853229173</v>
       </c>
       <c r="P12" t="n">
-        <v>2125.726210401687</v>
+        <v>1775.881745717703</v>
       </c>
       <c r="Q12" t="n">
         <v>2125.726210401687</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1168.570864852323</v>
+        <v>122.1030870209612</v>
       </c>
       <c r="C13" t="n">
-        <v>997.4774924140399</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="D13" t="n">
-        <v>837.9828477369499</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="E13" t="n">
-        <v>677.0720326052693</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="F13" t="n">
-        <v>512.4409067158606</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="G13" t="n">
-        <v>345.190515641404</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="H13" t="n">
-        <v>195.5830604468606</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="I13" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="J13" t="n">
-        <v>93.3195639563973</v>
+        <v>93.31956395639727</v>
       </c>
       <c r="K13" t="n">
         <v>247.8718916786353</v>
@@ -5232,19 +5232,19 @@
         <v>1608.635911172037</v>
       </c>
       <c r="U13" t="n">
-        <v>1608.635911172037</v>
+        <v>1325.837763718161</v>
       </c>
       <c r="V13" t="n">
-        <v>1608.635911172037</v>
+        <v>1051.952018657683</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.635911172037</v>
+        <v>772.8823541665574</v>
       </c>
       <c r="X13" t="n">
-        <v>1581.006269857603</v>
+        <v>534.5384920262409</v>
       </c>
       <c r="Y13" t="n">
-        <v>1356.270571246368</v>
+        <v>309.8027934150056</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1802.546968315058</v>
+        <v>2008.801616888019</v>
       </c>
       <c r="C14" t="n">
-        <v>1392.422377628328</v>
+        <v>1598.677026201289</v>
       </c>
       <c r="D14" t="n">
-        <v>1392.422377628328</v>
+        <v>1225.516139452885</v>
       </c>
       <c r="E14" t="n">
-        <v>978.0821621452251</v>
+        <v>811.1759239697813</v>
       </c>
       <c r="F14" t="n">
-        <v>885.2255587135635</v>
+        <v>390.1455119234687</v>
       </c>
       <c r="G14" t="n">
-        <v>476.4972746063956</v>
+        <v>390.1455119234687</v>
       </c>
       <c r="H14" t="n">
-        <v>165.5887772341136</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="I14" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="J14" t="n">
-        <v>79.23701455118677</v>
+        <v>333.4224860189411</v>
       </c>
       <c r="K14" t="n">
-        <v>617.3965156602263</v>
+        <v>871.5819871279806</v>
       </c>
       <c r="L14" t="n">
-        <v>1329.987915472464</v>
+        <v>897.845913107852</v>
       </c>
       <c r="M14" t="n">
-        <v>2106.306506464218</v>
+        <v>1674.164504099606</v>
       </c>
       <c r="N14" t="n">
-        <v>2859.487523102836</v>
+        <v>2427.345520738224</v>
       </c>
       <c r="O14" t="n">
-        <v>3503.118379519941</v>
+        <v>3070.976377155329</v>
       </c>
       <c r="P14" t="n">
-        <v>3961.850727559339</v>
+        <v>3600.133075074481</v>
       </c>
       <c r="Q14" t="n">
-        <v>3961.850727559339</v>
+        <v>3921.294081869773</v>
       </c>
       <c r="R14" t="n">
-        <v>3961.850727559339</v>
+        <v>3961.850727559337</v>
       </c>
       <c r="S14" t="n">
-        <v>3826.56965235344</v>
+        <v>3826.569652353438</v>
       </c>
       <c r="T14" t="n">
-        <v>3604.363168300299</v>
+        <v>3604.363168300297</v>
       </c>
       <c r="U14" t="n">
-        <v>3347.302676559809</v>
+        <v>3604.363168300297</v>
       </c>
       <c r="V14" t="n">
-        <v>2997.465121896289</v>
+        <v>3604.363168300297</v>
       </c>
       <c r="W14" t="n">
-        <v>2613.704821031458</v>
+        <v>3220.602867435466</v>
       </c>
       <c r="X14" t="n">
-        <v>2613.704821031458</v>
+        <v>2819.959469604418</v>
       </c>
       <c r="Y14" t="n">
-        <v>2212.768147979548</v>
+        <v>2419.022796552508</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>170.7328188952305</v>
       </c>
       <c r="H15" t="n">
-        <v>99.9856059309466</v>
+        <v>99.98560593094658</v>
       </c>
       <c r="I15" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="J15" t="n">
-        <v>79.23701455118677</v>
+        <v>272.04987211382</v>
       </c>
       <c r="K15" t="n">
-        <v>535.0432708164855</v>
+        <v>272.04987211382</v>
       </c>
       <c r="L15" t="n">
-        <v>860.0632273672625</v>
+        <v>548.1110277441746</v>
       </c>
       <c r="M15" t="n">
-        <v>860.0632273672625</v>
+        <v>548.1110277441746</v>
       </c>
       <c r="N15" t="n">
-        <v>860.0632273672625</v>
+        <v>1421.769119855792</v>
       </c>
       <c r="O15" t="n">
-        <v>1564.020317913157</v>
+        <v>2125.726210401687</v>
       </c>
       <c r="P15" t="n">
         <v>2125.726210401687</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="C16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="D16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="E16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="F16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="G16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="H16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="I16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
       <c r="J16" t="n">
-        <v>93.3195639563973</v>
+        <v>93.31956395639727</v>
       </c>
       <c r="K16" t="n">
         <v>247.8718916786353</v>
@@ -5460,28 +5460,28 @@
         <v>1608.635911172037</v>
       </c>
       <c r="R16" t="n">
-        <v>1523.363192847436</v>
+        <v>1608.635911172037</v>
       </c>
       <c r="S16" t="n">
-        <v>1336.971424727347</v>
+        <v>1608.635911172037</v>
       </c>
       <c r="T16" t="n">
-        <v>1097.422685704049</v>
+        <v>1369.087172148739</v>
       </c>
       <c r="U16" t="n">
-        <v>814.6245382501731</v>
+        <v>1086.289024694863</v>
       </c>
       <c r="V16" t="n">
-        <v>540.7387931896951</v>
+        <v>812.4032796343852</v>
       </c>
       <c r="W16" t="n">
-        <v>261.6691286985695</v>
+        <v>533.3336151432595</v>
       </c>
       <c r="X16" t="n">
-        <v>79.23701455118677</v>
+        <v>294.9897530029429</v>
       </c>
       <c r="Y16" t="n">
-        <v>79.23701455118677</v>
+        <v>79.23701455118675</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
         <v>812.8804791700727</v>
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N18" t="n">
-        <v>754.331869609911</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q18" t="n">
         <v>2110.173374178493</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>838.7485006659883</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>838.7485006659883</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>838.7485006659883</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1077.092362806305</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1077.092362806305</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>838.7485006659883</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>838.7485006659883</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1277.772921285978</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>856.7425092396657</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>448.0142251324978</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M21" t="n">
-        <v>1584.839892213121</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N21" t="n">
-        <v>1584.839892213121</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>643.6436162255084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>643.6436162255084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>643.6436162255084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>643.6436162255084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5940,22 +5940,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V22" t="n">
-        <v>1348.756849250995</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.687184759869</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>831.3433226195527</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>831.3433226195527</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C23" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E23" t="n">
         <v>1311.163691508386</v>
       </c>
       <c r="F23" t="n">
-        <v>890.1332794620738</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G23" t="n">
         <v>481.7597139735719</v>
@@ -5986,40 +5986,40 @@
         <v>174.4839786547034</v>
       </c>
       <c r="I23" t="n">
-        <v>101.8075055178983</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J23" t="n">
-        <v>385.5001609893743</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K23" t="n">
-        <v>967.883281971619</v>
+        <v>967.8832819716199</v>
       </c>
       <c r="L23" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M23" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N23" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O23" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P23" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q23" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R23" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S23" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T23" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U23" t="n">
         <v>4485.491533660957</v>
@@ -6028,7 +6028,7 @@
         <v>4135.653978997438</v>
       </c>
       <c r="W23" t="n">
-        <v>3751.893678132607</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X23" t="n">
         <v>3351.250280301559</v>
@@ -6062,7 +6062,7 @@
         <v>184.9358490198273</v>
       </c>
       <c r="H24" t="n">
-        <v>116.0216194194846</v>
+        <v>116.0216194194847</v>
       </c>
       <c r="I24" t="n">
         <v>101.8075055178986</v>
@@ -6071,22 +6071,22 @@
         <v>101.8075055178986</v>
       </c>
       <c r="K24" t="n">
-        <v>101.8075055178986</v>
+        <v>587.6509997645194</v>
       </c>
       <c r="L24" t="n">
-        <v>803.2844507284746</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="M24" t="n">
-        <v>803.2844507284746</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="N24" t="n">
-        <v>1725.321774582342</v>
+        <v>1289.127944975095</v>
       </c>
       <c r="O24" t="n">
-        <v>2135.43668320785</v>
+        <v>2037.342580915041</v>
       </c>
       <c r="P24" t="n">
-        <v>2135.43668320785</v>
+        <v>2037.342580915041</v>
       </c>
       <c r="Q24" t="n">
         <v>2135.43668320785</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4489.350077379109</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C25" t="n">
-        <v>4318.256704940826</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D25" t="n">
-        <v>4158.762060263736</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E25" t="n">
-        <v>3997.851245132055</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F25" t="n">
-        <v>3833.220119242646</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G25" t="n">
-        <v>3666.128842728899</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H25" t="n">
-        <v>3517.936060628659</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I25" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J25" t="n">
-        <v>3431.483109320746</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K25" t="n">
-        <v>3604.153780248006</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L25" t="n">
-        <v>3887.236121903256</v>
+        <v>582.6686038988485</v>
       </c>
       <c r="M25" t="n">
-        <v>4200.94576456317</v>
+        <v>896.3782465587624</v>
       </c>
       <c r="N25" t="n">
-        <v>4505.648871775115</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O25" t="n">
-        <v>4787.252048623631</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P25" t="n">
-        <v>5011.788712503886</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S25" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T25" t="n">
-        <v>5090.37527589493</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U25" t="n">
-        <v>5090.37527589493</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V25" t="n">
-        <v>5090.37527589493</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W25" t="n">
-        <v>5090.37527589493</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X25" t="n">
-        <v>4852.031413754614</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y25" t="n">
-        <v>4677.049783773154</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.092427585158</v>
+        <v>2540.092427585159</v>
       </c>
       <c r="C26" t="n">
-        <v>2129.967836898429</v>
+        <v>2129.96783689843</v>
       </c>
       <c r="D26" t="n">
-        <v>1725.503906991489</v>
+        <v>1725.50390699149</v>
       </c>
       <c r="E26" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F26" t="n">
-        <v>890.1332794620737</v>
+        <v>890.1332794620744</v>
       </c>
       <c r="G26" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H26" t="n">
-        <v>174.4839786547034</v>
+        <v>174.483978654704</v>
       </c>
       <c r="I26" t="n">
         <v>101.8075055178986</v>
@@ -6229,7 +6229,7 @@
         <v>385.5001609893752</v>
       </c>
       <c r="K26" t="n">
-        <v>967.8832819716199</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L26" t="n">
         <v>1735.337992756536</v>
@@ -6241,22 +6241,22 @@
         <v>3387.917397531934</v>
       </c>
       <c r="O26" t="n">
-        <v>4090.125005286255</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P26" t="n">
-        <v>4669.275605250682</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q26" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R26" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S26" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T26" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U26" t="n">
         <v>4485.491533660957</v>
@@ -6308,22 +6308,22 @@
         <v>101.8075055178986</v>
       </c>
       <c r="K27" t="n">
-        <v>497.11317315777</v>
+        <v>587.6509997645194</v>
       </c>
       <c r="L27" t="n">
-        <v>497.11317315777</v>
+        <v>587.6509997645194</v>
       </c>
       <c r="M27" t="n">
-        <v>1387.222047267905</v>
+        <v>587.6509997645194</v>
       </c>
       <c r="N27" t="n">
-        <v>1387.222047267905</v>
+        <v>587.6509997645194</v>
       </c>
       <c r="O27" t="n">
-        <v>2135.43668320785</v>
+        <v>1335.865635704465</v>
       </c>
       <c r="P27" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q27" t="n">
         <v>2135.43668320785</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3406.375023522307</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="C28" t="n">
-        <v>3406.375023522307</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="D28" t="n">
-        <v>3406.375023522307</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="E28" t="n">
-        <v>3406.375023522307</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="F28" t="n">
-        <v>3406.375023522307</v>
+        <v>248.1144332092604</v>
       </c>
       <c r="G28" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H28" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I28" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J28" t="n">
-        <v>3431.483109320746</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K28" t="n">
-        <v>3604.153780248006</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L28" t="n">
-        <v>3887.236121903256</v>
+        <v>582.6686038988485</v>
       </c>
       <c r="M28" t="n">
-        <v>4200.94576456317</v>
+        <v>896.3782465587624</v>
       </c>
       <c r="N28" t="n">
-        <v>4505.648871775115</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O28" t="n">
-        <v>4787.252048623631</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P28" t="n">
-        <v>5011.788712503886</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q28" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R28" t="n">
-        <v>5012.25692681821</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S28" t="n">
-        <v>4828.638091542476</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T28" t="n">
-        <v>4589.769205642207</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U28" t="n">
-        <v>4306.97973716437</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V28" t="n">
-        <v>4033.093992103892</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W28" t="n">
-        <v>3754.024327612766</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X28" t="n">
-        <v>3515.680465472449</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y28" t="n">
-        <v>3406.375023522307</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="29">
@@ -6448,13 +6448,13 @@
         <v>1725.50390699149</v>
       </c>
       <c r="E29" t="n">
-        <v>1311.163691508386</v>
+        <v>1311.163691508387</v>
       </c>
       <c r="F29" t="n">
-        <v>890.1332794620738</v>
+        <v>890.1332794620748</v>
       </c>
       <c r="G29" t="n">
-        <v>481.7597139735719</v>
+        <v>481.7597139735726</v>
       </c>
       <c r="H29" t="n">
         <v>174.4839786547034</v>
@@ -6463,7 +6463,7 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J29" t="n">
-        <v>385.5001609893752</v>
+        <v>385.5001609893748</v>
       </c>
       <c r="K29" t="n">
         <v>967.8832819716195</v>
@@ -6475,7 +6475,7 @@
         <v>2572.702588233699</v>
       </c>
       <c r="N29" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O29" t="n">
         <v>4090.125005286255</v>
@@ -6484,16 +6484,16 @@
         <v>4669.275605250682</v>
       </c>
       <c r="Q29" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R29" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S29" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T29" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U29" t="n">
         <v>4485.491533660957</v>
@@ -6542,28 +6542,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J30" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8075055178986</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L30" t="n">
-        <v>803.2844507284746</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="M30" t="n">
-        <v>1693.393324838609</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N30" t="n">
-        <v>1693.393324838609</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O30" t="n">
-        <v>2135.43668320785</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P30" t="n">
-        <v>2135.43668320785</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q30" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R30" t="n">
         <v>2135.43668320785</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1184.782559374701</v>
+        <v>268.8987820316462</v>
       </c>
       <c r="C31" t="n">
-        <v>1013.689186936417</v>
+        <v>268.8987820316462</v>
       </c>
       <c r="D31" t="n">
-        <v>854.1945422593274</v>
+        <v>268.8987820316462</v>
       </c>
       <c r="E31" t="n">
-        <v>693.2837271276468</v>
+        <v>268.8987820316462</v>
       </c>
       <c r="F31" t="n">
-        <v>528.652601238238</v>
+        <v>268.8987820316462</v>
       </c>
       <c r="G31" t="n">
-        <v>361.5613247244904</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H31" t="n">
-        <v>213.3685426242508</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I31" t="n">
         <v>101.8075055178986</v>
@@ -6624,13 +6624,13 @@
         <v>126.9155913163374</v>
       </c>
       <c r="K31" t="n">
-        <v>299.5862622435974</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L31" t="n">
-        <v>582.6686038988482</v>
+        <v>582.6686038988485</v>
       </c>
       <c r="M31" t="n">
-        <v>896.3782465587622</v>
+        <v>896.3782465587624</v>
       </c>
       <c r="N31" t="n">
         <v>1201.081353770707</v>
@@ -6648,25 +6648,25 @@
         <v>1785.807757890522</v>
       </c>
       <c r="S31" t="n">
-        <v>1785.807757890522</v>
+        <v>1602.188922614788</v>
       </c>
       <c r="T31" t="n">
-        <v>1785.807757890522</v>
+        <v>1363.32003671452</v>
       </c>
       <c r="U31" t="n">
-        <v>1785.807757890522</v>
+        <v>1193.56379423772</v>
       </c>
       <c r="V31" t="n">
-        <v>1785.807757890522</v>
+        <v>919.6780491772424</v>
       </c>
       <c r="W31" t="n">
-        <v>1785.807757890522</v>
+        <v>919.6780491772424</v>
       </c>
       <c r="X31" t="n">
-        <v>1597.21796437998</v>
+        <v>681.3341870369259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1372.482265768745</v>
+        <v>456.5984884256906</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C32" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D32" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E32" t="n">
-        <v>1311.163691508387</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F32" t="n">
-        <v>890.1332794620744</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G32" t="n">
-        <v>481.7597139735726</v>
+        <v>481.7597139735719</v>
       </c>
       <c r="H32" t="n">
-        <v>174.483978654704</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I32" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J32" t="n">
-        <v>385.5001609893748</v>
+        <v>385.5001609893752</v>
       </c>
       <c r="K32" t="n">
-        <v>967.8832819716192</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L32" t="n">
         <v>1735.337992756536</v>
       </c>
       <c r="M32" t="n">
-        <v>2572.702588233699</v>
+        <v>2572.7025882337</v>
       </c>
       <c r="N32" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O32" t="n">
-        <v>4090.125005286254</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P32" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q32" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.97995043484</v>
       </c>
       <c r="R32" t="n">
-        <v>5090.37527589493</v>
+        <v>5090.375275894932</v>
       </c>
       <c r="S32" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211885</v>
       </c>
       <c r="T32" t="n">
-        <v>4742.523647911953</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U32" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V32" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W32" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X32" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y32" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>291.736170512492</v>
       </c>
       <c r="G33" t="n">
-        <v>184.9358490198273</v>
+        <v>184.9358490198274</v>
       </c>
       <c r="H33" t="n">
         <v>116.0216194194847</v>
@@ -6779,28 +6779,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J33" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K33" t="n">
-        <v>170.2618308187576</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L33" t="n">
-        <v>871.7387760293336</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="M33" t="n">
-        <v>1761.847650139468</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N33" t="n">
-        <v>1761.847650139468</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O33" t="n">
-        <v>1761.847650139468</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P33" t="n">
-        <v>1761.847650139468</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R33" t="n">
         <v>2135.43668320785</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3897.873855769361</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C34" t="n">
-        <v>3726.780483331077</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D34" t="n">
-        <v>3567.285838653987</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E34" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F34" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G34" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H34" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I34" t="n">
-        <v>3406.375023522307</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J34" t="n">
-        <v>3431.483109320746</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K34" t="n">
-        <v>3604.153780248006</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L34" t="n">
-        <v>3887.236121903256</v>
+        <v>582.6686038988485</v>
       </c>
       <c r="M34" t="n">
-        <v>4200.94576456317</v>
+        <v>896.3782465587624</v>
       </c>
       <c r="N34" t="n">
-        <v>4505.648871775115</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O34" t="n">
-        <v>4787.252048623631</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P34" t="n">
-        <v>5011.788712503886</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q34" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R34" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S34" t="n">
-        <v>5090.37527589493</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T34" t="n">
-        <v>4851.506389994662</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U34" t="n">
-        <v>4568.716921516824</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V34" t="n">
-        <v>4568.716921516824</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W34" t="n">
-        <v>4548.653122914957</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X34" t="n">
-        <v>4310.30926077464</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y34" t="n">
-        <v>4085.573562163405</v>
+        <v>248.1144332092604</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.092427585159</v>
+        <v>2540.092427585158</v>
       </c>
       <c r="C35" t="n">
-        <v>2129.96783689843</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D35" t="n">
-        <v>1725.50390699149</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E35" t="n">
-        <v>1311.163691508387</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F35" t="n">
-        <v>890.1332794620744</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G35" t="n">
-        <v>481.7597139735726</v>
+        <v>481.7597139735719</v>
       </c>
       <c r="H35" t="n">
-        <v>174.483978654704</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I35" t="n">
         <v>101.8075055178986</v>
@@ -6946,43 +6946,43 @@
         <v>1735.337992756536</v>
       </c>
       <c r="M35" t="n">
-        <v>2572.702588233699</v>
+        <v>2572.7025882337</v>
       </c>
       <c r="N35" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O35" t="n">
-        <v>4090.125005286255</v>
+        <v>4090.125005286256</v>
       </c>
       <c r="P35" t="n">
-        <v>4669.275605250682</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q35" t="n">
-        <v>5027.979950434839</v>
+        <v>5027.97995043484</v>
       </c>
       <c r="R35" t="n">
-        <v>5090.375275894931</v>
+        <v>5090.375275894932</v>
       </c>
       <c r="S35" t="n">
-        <v>4963.177351211884</v>
+        <v>4963.177351211885</v>
       </c>
       <c r="T35" t="n">
-        <v>4742.523647911954</v>
+        <v>4742.523647911952</v>
       </c>
       <c r="U35" t="n">
-        <v>4485.491533660957</v>
+        <v>4485.491533660956</v>
       </c>
       <c r="V35" t="n">
-        <v>4135.653978997438</v>
+        <v>4135.653978997437</v>
       </c>
       <c r="W35" t="n">
         <v>3751.893678132606</v>
       </c>
       <c r="X35" t="n">
-        <v>3351.250280301559</v>
+        <v>3351.250280301558</v>
       </c>
       <c r="Y35" t="n">
-        <v>2950.313607249649</v>
+        <v>2950.313607249648</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J36" t="n">
-        <v>101.8075055178986</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K36" t="n">
-        <v>587.6509997645193</v>
+        <v>798.0381339753221</v>
       </c>
       <c r="L36" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="M36" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="N36" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="O36" t="n">
-        <v>1289.127944975095</v>
+        <v>1123.512449655492</v>
       </c>
       <c r="P36" t="n">
-        <v>1886.354419456476</v>
+        <v>1720.738924136873</v>
       </c>
       <c r="Q36" t="n">
-        <v>2135.43668320785</v>
+        <v>2094.327957205255</v>
       </c>
       <c r="R36" t="n">
         <v>2135.43668320785</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="C37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="D37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="E37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="F37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="G37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="H37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="I37" t="n">
-        <v>3406.375023522309</v>
+        <v>101.8075055178986</v>
       </c>
       <c r="J37" t="n">
-        <v>3431.483109320748</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K37" t="n">
-        <v>3604.153780248007</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L37" t="n">
-        <v>3887.236121903258</v>
+        <v>582.6686038988485</v>
       </c>
       <c r="M37" t="n">
-        <v>4200.945764563172</v>
+        <v>896.3782465587624</v>
       </c>
       <c r="N37" t="n">
-        <v>4505.648871775116</v>
+        <v>1201.081353770707</v>
       </c>
       <c r="O37" t="n">
-        <v>4787.252048623632</v>
+        <v>1482.684530619222</v>
       </c>
       <c r="P37" t="n">
-        <v>5011.788712503887</v>
+        <v>1707.221194499477</v>
       </c>
       <c r="Q37" t="n">
-        <v>5090.375275894931</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R37" t="n">
-        <v>5012.256926818211</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S37" t="n">
-        <v>4828.638091542477</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T37" t="n">
-        <v>4589.769205642208</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U37" t="n">
-        <v>4306.979737164371</v>
+        <v>1305.542182215099</v>
       </c>
       <c r="V37" t="n">
-        <v>4033.093992103893</v>
+        <v>1031.656437154621</v>
       </c>
       <c r="W37" t="n">
-        <v>3754.024327612767</v>
+        <v>752.5867726634949</v>
       </c>
       <c r="X37" t="n">
-        <v>3515.68046547245</v>
+        <v>514.2429105231784</v>
       </c>
       <c r="Y37" t="n">
-        <v>3406.375023522309</v>
+        <v>289.507211911943</v>
       </c>
     </row>
     <row r="38">
@@ -7153,73 +7153,73 @@
         <v>2540.092427585158</v>
       </c>
       <c r="C38" t="n">
-        <v>2129.967836898428</v>
+        <v>2129.967836898429</v>
       </c>
       <c r="D38" t="n">
-        <v>1725.503906991488</v>
+        <v>1725.503906991489</v>
       </c>
       <c r="E38" t="n">
-        <v>1311.163691508385</v>
+        <v>1311.163691508386</v>
       </c>
       <c r="F38" t="n">
-        <v>890.1332794620726</v>
+        <v>890.1332794620737</v>
       </c>
       <c r="G38" t="n">
-        <v>481.7597139735707</v>
+        <v>481.7597139735719</v>
       </c>
       <c r="H38" t="n">
-        <v>174.4839786547022</v>
+        <v>174.4839786547034</v>
       </c>
       <c r="I38" t="n">
         <v>101.8075055178986</v>
       </c>
       <c r="J38" t="n">
-        <v>385.5001609893745</v>
+        <v>385.5001609893749</v>
       </c>
       <c r="K38" t="n">
-        <v>967.883281971619</v>
+        <v>967.8832819716195</v>
       </c>
       <c r="L38" t="n">
-        <v>1735.337992756535</v>
+        <v>1735.337992756536</v>
       </c>
       <c r="M38" t="n">
-        <v>2572.702588233698</v>
+        <v>2572.702588233699</v>
       </c>
       <c r="N38" t="n">
-        <v>3387.917397531933</v>
+        <v>3387.917397531934</v>
       </c>
       <c r="O38" t="n">
-        <v>4090.125005286253</v>
+        <v>4090.125005286255</v>
       </c>
       <c r="P38" t="n">
-        <v>4669.275605250681</v>
+        <v>4669.275605250683</v>
       </c>
       <c r="Q38" t="n">
-        <v>5027.979950434838</v>
+        <v>5027.979950434839</v>
       </c>
       <c r="R38" t="n">
-        <v>5090.375275894929</v>
+        <v>5090.375275894931</v>
       </c>
       <c r="S38" t="n">
-        <v>4963.177351211883</v>
+        <v>4963.177351211884</v>
       </c>
       <c r="T38" t="n">
-        <v>4742.523647911952</v>
+        <v>4742.523647911954</v>
       </c>
       <c r="U38" t="n">
-        <v>4485.491533660956</v>
+        <v>4485.491533660957</v>
       </c>
       <c r="V38" t="n">
-        <v>4135.653978997436</v>
+        <v>4135.653978997438</v>
       </c>
       <c r="W38" t="n">
-        <v>3751.893678132604</v>
+        <v>3751.893678132606</v>
       </c>
       <c r="X38" t="n">
-        <v>3351.250280301557</v>
+        <v>3351.250280301559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2950.313607249647</v>
+        <v>2950.313607249649</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J39" t="n">
-        <v>312.1946397287013</v>
+        <v>312.1946397287014</v>
       </c>
       <c r="K39" t="n">
-        <v>323.2904852438478</v>
+        <v>798.038133975322</v>
       </c>
       <c r="L39" t="n">
-        <v>323.2904852438478</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="M39" t="n">
-        <v>1213.399359353982</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="N39" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.43668320785</v>
+        <v>1164.621175658087</v>
       </c>
       <c r="P39" t="n">
-        <v>2135.43668320785</v>
+        <v>1761.847650139468</v>
       </c>
       <c r="Q39" t="n">
         <v>2135.43668320785</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>597.0266485226807</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="C40" t="n">
-        <v>425.9332760843973</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="D40" t="n">
-        <v>266.4386314073073</v>
+        <v>313.3554871434058</v>
       </c>
       <c r="E40" t="n">
-        <v>266.4386314073073</v>
+        <v>152.4446720117252</v>
       </c>
       <c r="F40" t="n">
         <v>101.8075055178986</v>
@@ -7332,16 +7332,16 @@
         <v>101.8075055178986</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9155913163373</v>
+        <v>126.9155913163374</v>
       </c>
       <c r="K40" t="n">
-        <v>299.5862622435973</v>
+        <v>299.5862622435975</v>
       </c>
       <c r="L40" t="n">
-        <v>582.6686038988481</v>
+        <v>582.6686038988483</v>
       </c>
       <c r="M40" t="n">
-        <v>896.3782465587619</v>
+        <v>896.3782465587623</v>
       </c>
       <c r="N40" t="n">
         <v>1201.081353770707</v>
@@ -7353,31 +7353,31 @@
         <v>1707.221194499477</v>
       </c>
       <c r="Q40" t="n">
-        <v>1785.807757890521</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="R40" t="n">
-        <v>1785.807757890521</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="S40" t="n">
-        <v>1785.807757890521</v>
+        <v>1785.807757890522</v>
       </c>
       <c r="T40" t="n">
-        <v>1785.807757890521</v>
+        <v>1546.938871990253</v>
       </c>
       <c r="U40" t="n">
-        <v>1785.807757890521</v>
+        <v>1264.149403512416</v>
       </c>
       <c r="V40" t="n">
-        <v>1526.875580159403</v>
+        <v>990.263658451938</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.805915668277</v>
+        <v>711.1939939608123</v>
       </c>
       <c r="X40" t="n">
-        <v>1009.46205352796</v>
+        <v>472.8501318204957</v>
       </c>
       <c r="Y40" t="n">
-        <v>784.7263549167251</v>
+        <v>472.8501318204957</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1839.758270613357</v>
+        <v>2096.790384864354</v>
       </c>
       <c r="C41" t="n">
-        <v>1429.633679926627</v>
+        <v>1686.665794177624</v>
       </c>
       <c r="D41" t="n">
-        <v>1025.169750019687</v>
+        <v>1282.201864270684</v>
       </c>
       <c r="E41" t="n">
-        <v>610.8295345365841</v>
+        <v>867.8616487875811</v>
       </c>
       <c r="F41" t="n">
-        <v>189.7991224902717</v>
+        <v>446.8312367412686</v>
       </c>
       <c r="G41" t="n">
-        <v>87.80082237846258</v>
+        <v>446.8312367412686</v>
       </c>
       <c r="H41" t="n">
-        <v>87.80082237846258</v>
+        <v>139.5555014224001</v>
       </c>
       <c r="I41" t="n">
         <v>87.80082237846258</v>
       </c>
       <c r="J41" t="n">
-        <v>87.80082237846258</v>
+        <v>371.4934778499388</v>
       </c>
       <c r="K41" t="n">
-        <v>670.183943360707</v>
+        <v>953.8765988321834</v>
       </c>
       <c r="L41" t="n">
-        <v>1437.638654145623</v>
+        <v>1035.003835784733</v>
       </c>
       <c r="M41" t="n">
-        <v>2275.003249622786</v>
+        <v>1872.368431261897</v>
       </c>
       <c r="N41" t="n">
-        <v>3090.21805892102</v>
+        <v>2687.583240560131</v>
       </c>
       <c r="O41" t="n">
-        <v>3792.425666675342</v>
+        <v>3389.790848314453</v>
       </c>
       <c r="P41" t="n">
-        <v>4371.576266639769</v>
+        <v>3968.94144827888</v>
       </c>
       <c r="Q41" t="n">
-        <v>4390.041118923129</v>
+        <v>4327.645793463037</v>
       </c>
       <c r="R41" t="n">
         <v>4390.041118923129</v>
@@ -7444,19 +7444,19 @@
         <v>4042.189490940151</v>
       </c>
       <c r="U41" t="n">
-        <v>3785.157376689155</v>
+        <v>4042.189490940151</v>
       </c>
       <c r="V41" t="n">
-        <v>3435.319822025635</v>
+        <v>3692.351936276632</v>
       </c>
       <c r="W41" t="n">
-        <v>3051.559521160804</v>
+        <v>3308.5916354118</v>
       </c>
       <c r="X41" t="n">
-        <v>2650.916123329756</v>
+        <v>2907.948237580753</v>
       </c>
       <c r="Y41" t="n">
-        <v>2249.979450277846</v>
+        <v>2507.011564528843</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>758.0744122298854</v>
+        <v>758.0744122298852</v>
       </c>
       <c r="C42" t="n">
-        <v>624.0793409788311</v>
+        <v>624.0793409788309</v>
       </c>
       <c r="D42" t="n">
-        <v>507.1821831982235</v>
+        <v>507.1821831982234</v>
       </c>
       <c r="E42" t="n">
-        <v>386.6893671905515</v>
+        <v>386.6893671905514</v>
       </c>
       <c r="F42" t="n">
         <v>277.729487373056</v>
       </c>
       <c r="G42" t="n">
-        <v>170.9291658803914</v>
+        <v>170.9291658803913</v>
       </c>
       <c r="H42" t="n">
         <v>102.0149362800486</v>
@@ -7490,25 +7490,25 @@
         <v>87.80082237846258</v>
       </c>
       <c r="J42" t="n">
-        <v>87.80082237846258</v>
+        <v>298.1879565892654</v>
       </c>
       <c r="K42" t="n">
-        <v>87.80082237846258</v>
+        <v>784.0314508358861</v>
       </c>
       <c r="L42" t="n">
-        <v>87.80082237846258</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="M42" t="n">
-        <v>977.9096964885972</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="N42" t="n">
-        <v>1899.947020342465</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="O42" t="n">
-        <v>2121.430000068414</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="P42" t="n">
-        <v>2121.430000068414</v>
+        <v>1747.840967000032</v>
       </c>
       <c r="Q42" t="n">
         <v>2121.430000068414</v>
@@ -7517,7 +7517,7 @@
         <v>2121.430000068414</v>
       </c>
       <c r="S42" t="n">
-        <v>2016.965278350885</v>
+        <v>2016.965278350884</v>
       </c>
       <c r="T42" t="n">
         <v>1858.388406232471</v>
@@ -7526,7 +7526,7 @@
         <v>1661.050081633387</v>
       </c>
       <c r="V42" t="n">
-        <v>1447.338554626421</v>
+        <v>1447.33855462642</v>
       </c>
       <c r="W42" t="n">
         <v>1234.105386362749</v>
@@ -7535,7 +7535,7 @@
         <v>1057.779404501642</v>
       </c>
       <c r="Y42" t="n">
-        <v>898.3774448654721</v>
+        <v>898.3774448654718</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1121.021807605489</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="C43" t="n">
-        <v>949.9284351672054</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="D43" t="n">
-        <v>790.4337904901154</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="E43" t="n">
-        <v>629.5229753584349</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="F43" t="n">
-        <v>464.8918494690262</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="G43" t="n">
-        <v>297.8005729552786</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="H43" t="n">
-        <v>149.6077908550389</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="I43" t="n">
         <v>87.80082237846258</v>
@@ -7572,13 +7572,13 @@
         <v>112.9089081769013</v>
       </c>
       <c r="K43" t="n">
-        <v>285.5795791041613</v>
+        <v>285.5795791041614</v>
       </c>
       <c r="L43" t="n">
-        <v>568.6619207594122</v>
+        <v>568.6619207594123</v>
       </c>
       <c r="M43" t="n">
-        <v>882.371563419326</v>
+        <v>882.3715634193262</v>
       </c>
       <c r="N43" t="n">
         <v>1187.074670631271</v>
@@ -7590,31 +7590,31 @@
         <v>1693.214511360041</v>
       </c>
       <c r="Q43" t="n">
-        <v>1771.801074751085</v>
+        <v>1771.801074751086</v>
       </c>
       <c r="R43" t="n">
-        <v>1771.801074751085</v>
+        <v>1771.801074751086</v>
       </c>
       <c r="S43" t="n">
-        <v>1771.801074751085</v>
+        <v>1771.801074751086</v>
       </c>
       <c r="T43" t="n">
-        <v>1771.801074751085</v>
+        <v>1532.932188850817</v>
       </c>
       <c r="U43" t="n">
-        <v>1771.801074751085</v>
+        <v>1250.14272037298</v>
       </c>
       <c r="V43" t="n">
-        <v>1771.801074751085</v>
+        <v>976.2569753125019</v>
       </c>
       <c r="W43" t="n">
-        <v>1771.801074751085</v>
+        <v>697.1873108213763</v>
       </c>
       <c r="X43" t="n">
-        <v>1533.457212610768</v>
+        <v>458.8434486810597</v>
       </c>
       <c r="Y43" t="n">
-        <v>1308.721513999533</v>
+        <v>234.1077500698244</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1839.758270613357</v>
+        <v>2105.05533239941</v>
       </c>
       <c r="C44" t="n">
-        <v>1429.633679926627</v>
+        <v>1694.93074171268</v>
       </c>
       <c r="D44" t="n">
-        <v>1331.54501539638</v>
+        <v>1290.466811805741</v>
       </c>
       <c r="E44" t="n">
-        <v>917.2047999132768</v>
+        <v>876.1265963226376</v>
       </c>
       <c r="F44" t="n">
-        <v>496.1743878669644</v>
+        <v>876.1265963226376</v>
       </c>
       <c r="G44" t="n">
-        <v>87.80082237846258</v>
+        <v>467.7530308341359</v>
       </c>
       <c r="H44" t="n">
-        <v>87.80082237846258</v>
+        <v>160.4772955152673</v>
       </c>
       <c r="I44" t="n">
         <v>87.80082237846258</v>
       </c>
       <c r="J44" t="n">
-        <v>87.80082237846258</v>
+        <v>371.4934778499388</v>
       </c>
       <c r="K44" t="n">
-        <v>670.183943360707</v>
+        <v>953.8765988321834</v>
       </c>
       <c r="L44" t="n">
-        <v>1035.003835784735</v>
+        <v>1721.3313096171</v>
       </c>
       <c r="M44" t="n">
-        <v>1872.368431261898</v>
+        <v>2451.519031226324</v>
       </c>
       <c r="N44" t="n">
-        <v>2687.583240560132</v>
+        <v>3266.733840524559</v>
       </c>
       <c r="O44" t="n">
-        <v>3389.790848314453</v>
+        <v>3968.94144827888</v>
       </c>
       <c r="P44" t="n">
         <v>3968.94144827888</v>
@@ -7681,19 +7681,19 @@
         <v>4042.189490940151</v>
       </c>
       <c r="U44" t="n">
-        <v>3785.157376689155</v>
+        <v>4042.189490940151</v>
       </c>
       <c r="V44" t="n">
-        <v>3435.319822025635</v>
+        <v>3692.351936276632</v>
       </c>
       <c r="W44" t="n">
-        <v>3051.559521160804</v>
+        <v>3316.856582946857</v>
       </c>
       <c r="X44" t="n">
-        <v>2650.916123329756</v>
+        <v>2916.21318511581</v>
       </c>
       <c r="Y44" t="n">
-        <v>2249.979450277846</v>
+        <v>2515.2765120639</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>758.0744122298854</v>
+        <v>758.0744122298852</v>
       </c>
       <c r="C45" t="n">
-        <v>624.0793409788311</v>
+        <v>624.0793409788309</v>
       </c>
       <c r="D45" t="n">
-        <v>507.1821831982235</v>
+        <v>507.1821831982234</v>
       </c>
       <c r="E45" t="n">
-        <v>386.6893671905515</v>
+        <v>386.6893671905514</v>
       </c>
       <c r="F45" t="n">
         <v>277.729487373056</v>
       </c>
       <c r="G45" t="n">
-        <v>170.9291658803914</v>
+        <v>170.9291658803913</v>
       </c>
       <c r="H45" t="n">
         <v>102.0149362800486</v>
@@ -7727,25 +7727,25 @@
         <v>87.80082237846258</v>
       </c>
       <c r="J45" t="n">
-        <v>87.80082237846258</v>
+        <v>298.1879565892654</v>
       </c>
       <c r="K45" t="n">
-        <v>573.6443166250831</v>
+        <v>784.0314508358861</v>
       </c>
       <c r="L45" t="n">
-        <v>1275.121261835659</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="M45" t="n">
-        <v>2121.430000068414</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="N45" t="n">
-        <v>2121.430000068414</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="O45" t="n">
-        <v>2121.430000068414</v>
+        <v>1150.614492518651</v>
       </c>
       <c r="P45" t="n">
-        <v>2121.430000068414</v>
+        <v>1747.840967000032</v>
       </c>
       <c r="Q45" t="n">
         <v>2121.430000068414</v>
@@ -7754,7 +7754,7 @@
         <v>2121.430000068414</v>
       </c>
       <c r="S45" t="n">
-        <v>2016.965278350885</v>
+        <v>2016.965278350884</v>
       </c>
       <c r="T45" t="n">
         <v>1858.388406232471</v>
@@ -7763,7 +7763,7 @@
         <v>1661.050081633387</v>
       </c>
       <c r="V45" t="n">
-        <v>1447.338554626421</v>
+        <v>1447.33855462642</v>
       </c>
       <c r="W45" t="n">
         <v>1234.105386362749</v>
@@ -7772,7 +7772,7 @@
         <v>1057.779404501642</v>
       </c>
       <c r="Y45" t="n">
-        <v>898.3774448654721</v>
+        <v>898.3774448654718</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1097.628485393351</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="C46" t="n">
-        <v>926.5351129550672</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="D46" t="n">
-        <v>767.0404682779772</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="E46" t="n">
-        <v>606.1296531462967</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="F46" t="n">
-        <v>441.498527256888</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="G46" t="n">
-        <v>274.4072507431404</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="H46" t="n">
-        <v>199.3618594848148</v>
+        <v>87.80082237846258</v>
       </c>
       <c r="I46" t="n">
         <v>87.80082237846258</v>
@@ -7809,13 +7809,13 @@
         <v>112.9089081769013</v>
       </c>
       <c r="K46" t="n">
-        <v>285.5795791041613</v>
+        <v>285.5795791041614</v>
       </c>
       <c r="L46" t="n">
-        <v>568.6619207594122</v>
+        <v>568.6619207594123</v>
       </c>
       <c r="M46" t="n">
-        <v>882.371563419326</v>
+        <v>882.3715634193262</v>
       </c>
       <c r="N46" t="n">
         <v>1187.074670631271</v>
@@ -7827,31 +7827,31 @@
         <v>1693.214511360041</v>
       </c>
       <c r="Q46" t="n">
-        <v>1771.801074751085</v>
+        <v>1771.801074751086</v>
       </c>
       <c r="R46" t="n">
-        <v>1693.682725674364</v>
+        <v>1771.801074751086</v>
       </c>
       <c r="S46" t="n">
-        <v>1510.06389039863</v>
+        <v>1771.801074751086</v>
       </c>
       <c r="T46" t="n">
-        <v>1510.06389039863</v>
+        <v>1532.932188850817</v>
       </c>
       <c r="U46" t="n">
-        <v>1510.06389039863</v>
+        <v>1250.14272037298</v>
       </c>
       <c r="V46" t="n">
-        <v>1510.06389039863</v>
+        <v>976.2569753125019</v>
       </c>
       <c r="W46" t="n">
-        <v>1510.06389039863</v>
+        <v>697.1873108213763</v>
       </c>
       <c r="X46" t="n">
-        <v>1510.06389039863</v>
+        <v>458.8434486810597</v>
       </c>
       <c r="Y46" t="n">
-        <v>1285.328191787395</v>
+        <v>234.1077500698244</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>535.1658287548266</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959031</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519242</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>265.701425083553</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>98.31121191537929</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>73.48479305079316</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
@@ -8467,7 +8467,7 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051008</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8531,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>173.5595280421012</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8692,10 +8692,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>665.610071890029</v>
+        <v>122.0146162243311</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>429.1692081600164</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>293.7680303325974</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>122.0146162243311</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8944,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>557.0153714014876</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,25 +9005,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4175102257753</v>
+        <v>334.9641759627224</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>555.7634839606675</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>506.5304157637054</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>88.85829947169823</v>
@@ -9479,13 +9479,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
@@ -9494,7 +9494,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>618.2494601393954</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>33.61744420588941</v>
+        <v>33.61744420588938</v>
       </c>
       <c r="K24" t="n">
-        <v>25.48513835903766</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>9.956411601479999</v>
+        <v>9.956411601479914</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992546</v>
       </c>
       <c r="O24" t="n">
-        <v>427.3043711529867</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>18.3802592524492</v>
+        <v>18.38025925244914</v>
       </c>
       <c r="Q24" t="n">
-        <v>32.70820599534544</v>
+        <v>131.7931578062637</v>
       </c>
       <c r="R24" t="n">
-        <v>47.3343338125114</v>
+        <v>47.33433381251138</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>33.61744420588943</v>
+        <v>33.61744420588938</v>
       </c>
       <c r="K27" t="n">
-        <v>424.783792540726</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>15.31778311257859</v>
+        <v>15.31778311257847</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>9.956411601479921</v>
       </c>
       <c r="N27" t="n">
-        <v>4.325482542992695</v>
+        <v>4.325482542992553</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>18.38025925244925</v>
+        <v>448.6651223181093</v>
       </c>
       <c r="Q27" t="n">
-        <v>32.70820599534547</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>47.33433381251142</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681342</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>33.61744420588943</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>25.4851383590377</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>15.31778311257847</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>338.7183466319543</v>
       </c>
       <c r="N30" t="n">
-        <v>4.325482542992695</v>
+        <v>4.325482542992553</v>
       </c>
       <c r="O30" t="n">
-        <v>459.5553304900907</v>
+        <v>13.0468876928778</v>
       </c>
       <c r="P30" t="n">
-        <v>18.38025925244925</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>32.70820599534547</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>47.33433381251142</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>33.61744420588943</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>94.63092149121854</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>15.31778311257847</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>338.7183466319543</v>
       </c>
       <c r="N33" t="n">
-        <v>4.325482542992695</v>
+        <v>4.325482542992553</v>
       </c>
       <c r="O33" t="n">
-        <v>13.04688769287794</v>
+        <v>13.0468876928778</v>
       </c>
       <c r="P33" t="n">
-        <v>18.38025925244925</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>47.33433381251142</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>33.61744420588943</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>344.0797181430528</v>
       </c>
       <c r="M36" t="n">
-        <v>9.956411601480063</v>
+        <v>9.956411601479921</v>
       </c>
       <c r="N36" t="n">
-        <v>4.325482542992695</v>
+        <v>4.325482542992553</v>
       </c>
       <c r="O36" t="n">
-        <v>13.04688769287794</v>
+        <v>13.0468876928778</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>284.3064522088542</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>47.33433381251142</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>36.693063121812</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>15.31778311257867</v>
+        <v>385.6036838022401</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O39" t="n">
-        <v>13.04688769287802</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P39" t="n">
-        <v>18.38025925244932</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>32.70820599534551</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>47.33433381251145</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.51835496591221</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>122.0146162243315</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11080,10 +11080,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.76260631278403</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>65.25287031924142</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>33.61744420588947</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>25.48513835903776</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>15.31778311257867</v>
+        <v>385.60368380224</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O42" t="n">
-        <v>236.7670692342411</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P42" t="n">
-        <v>18.38025925244932</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.70820599534551</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>47.33433381251145</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>43.51835496591221</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>408.5728540743091</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780091</v>
+        <v>769.1909488245356</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11314,7 +11314,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>628.1510783507341</v>
+        <v>43.15047232606027</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>33.61744420588947</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>385.60368380224</v>
       </c>
       <c r="M45" t="n">
-        <v>864.8137229476977</v>
+        <v>9.95641160147995</v>
       </c>
       <c r="N45" t="n">
-        <v>4.325482542992788</v>
+        <v>4.325482542992582</v>
       </c>
       <c r="O45" t="n">
-        <v>13.04688769287802</v>
+        <v>13.04688769287783</v>
       </c>
       <c r="P45" t="n">
-        <v>18.38025925244932</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.70820599534551</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>47.33433381251145</v>
+        <v>47.33433381251139</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>173.1822459409029</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.610654114838951</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>126.945026968824</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>30.99001272694989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>324.8920705285043</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300458</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>13.1086199082936</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>42.06483528720054</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>46.96074852400506</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>40.97885091565576</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.33716558595376</v>
+        <v>77.33716558595374</v>
       </c>
       <c r="S25" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T25" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>49.25652794347738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.4203637486101</v>
+        <v>20.57650533416191</v>
       </c>
       <c r="H28" t="n">
         <v>146.7108542792373</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>114.2759540944821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>77.33716558595377</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S31" t="n">
-        <v>181.7826469229764</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9615737930588</v>
+        <v>111.9028937410277</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>49.25652794347778</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.97885091565578</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.33716558595377</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S34" t="n">
         <v>181.7826469229764</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>256.4158072303657</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>40.97885091565581</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>114.275954094483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>112.8540198016263</v>
       </c>
       <c r="G40" t="n">
         <v>165.4203637486101</v>
@@ -25569,7 +25569,7 @@
         <v>146.7108542792373</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4454267352887</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>77.33716558595378</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S40" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T40" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>14.80403165606612</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>303.3115127229258</v>
+        <v>404.2898298336167</v>
       </c>
       <c r="H41" t="n">
-        <v>304.2029779656798</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.94970840543674</v>
+        <v>20.71257615193856</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>40.97885091565578</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I43" t="n">
-        <v>49.25652794347808</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>77.33716558595378</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S43" t="n">
         <v>181.7826469229764</v>
       </c>
       <c r="T43" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>303.3115127229258</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>304.2029779656798</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.94970840543674</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.4617931084866</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>8.182298059706056</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.97885091565578</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.4203637486101</v>
       </c>
       <c r="H46" t="n">
-        <v>72.41591693349487</v>
+        <v>146.7108542792373</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.4454267352886</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>77.33716558595376</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.7826469229764</v>
       </c>
       <c r="T46" t="n">
-        <v>236.4801970412658</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9615737930588</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769037.843548986</v>
+        <v>769037.8435489861</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813212.6553975557</v>
+        <v>813212.6553975558</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813212.6553975557</v>
+        <v>813212.6553975558</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813212.6553975557</v>
+        <v>813212.6553975558</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>813212.6553975558</v>
+        <v>813212.6553975557</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741384.8435658268</v>
+        <v>741384.8435658269</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741384.8435658267</v>
+        <v>741384.8435658269</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>374629.5039746511</v>
+        <v>374629.5039746512</v>
       </c>
       <c r="C2" t="n">
-        <v>374629.5039746511</v>
+        <v>374629.503974651</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.5039746511</v>
+        <v>374629.503974651</v>
       </c>
       <c r="E2" t="n">
-        <v>301996.8912728237</v>
+        <v>301996.8912728239</v>
       </c>
       <c r="F2" t="n">
         <v>301996.8912728237</v>
       </c>
       <c r="G2" t="n">
+        <v>333095.9676653582</v>
+      </c>
+      <c r="H2" t="n">
         <v>333095.967665358</v>
-      </c>
-      <c r="H2" t="n">
-        <v>333095.9676653579</v>
       </c>
       <c r="I2" t="n">
         <v>355692.5372336005</v>
       </c>
       <c r="J2" t="n">
-        <v>355692.5372336003</v>
+        <v>355692.5372336006</v>
       </c>
       <c r="K2" t="n">
-        <v>355692.5372336004</v>
+        <v>355692.5372335999</v>
       </c>
       <c r="L2" t="n">
         <v>355692.5372336006</v>
       </c>
       <c r="M2" t="n">
-        <v>355692.5372336003</v>
+        <v>355692.5372336006</v>
       </c>
       <c r="N2" t="n">
-        <v>355692.5372336002</v>
+        <v>355692.5372336005</v>
       </c>
       <c r="O2" t="n">
-        <v>324593.4608410658</v>
+        <v>324593.4608410661</v>
       </c>
       <c r="P2" t="n">
-        <v>324593.4608410658</v>
+        <v>324593.460841066</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139853.6699193616</v>
+        <v>139853.6699193615</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47987.77185340402</v>
+        <v>47987.7718534041</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>94221.76049153147</v>
+        <v>94221.76049153166</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>116726.9321871826</v>
+        <v>116726.9321871825</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>80741.30222829295</v>
+        <v>80741.30222829292</v>
       </c>
       <c r="F4" t="n">
-        <v>80741.30222829295</v>
+        <v>80741.30222829292</v>
       </c>
       <c r="G4" t="n">
         <v>89101.60277166063</v>
@@ -26441,25 +26441,25 @@
         <v>87156.22115520579</v>
       </c>
       <c r="J4" t="n">
-        <v>87156.22115520579</v>
+        <v>87156.22115520577</v>
       </c>
       <c r="K4" t="n">
         <v>87156.22115520579</v>
       </c>
       <c r="L4" t="n">
-        <v>87156.2211552058</v>
+        <v>87156.22115520579</v>
       </c>
       <c r="M4" t="n">
         <v>87156.22115520579</v>
       </c>
       <c r="N4" t="n">
-        <v>87156.2211552058</v>
+        <v>87156.22115520577</v>
       </c>
       <c r="O4" t="n">
-        <v>78795.9206118381</v>
+        <v>78795.92061183807</v>
       </c>
       <c r="P4" t="n">
-        <v>78795.92061183811</v>
+        <v>78795.92061183807</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>60220.13105890195</v>
+        <v>60220.13105890193</v>
       </c>
       <c r="F5" t="n">
-        <v>60220.13105890195</v>
+        <v>60220.13105890193</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26490,22 +26490,22 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="J5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="K5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="L5" t="n">
-        <v>79278.01907908043</v>
+        <v>79278.01907908048</v>
       </c>
       <c r="M5" t="n">
-        <v>79278.01907908045</v>
+        <v>79278.01907908048</v>
       </c>
       <c r="N5" t="n">
-        <v>79278.01907908042</v>
+        <v>79278.01907908046</v>
       </c>
       <c r="O5" t="n">
         <v>68632.93989310905</v>
@@ -26524,46 +26524,46 @@
         <v>-78754.61727655155</v>
       </c>
       <c r="C6" t="n">
-        <v>96200.89261656249</v>
+        <v>96200.89261656243</v>
       </c>
       <c r="D6" t="n">
-        <v>96200.89261656249</v>
+        <v>96200.89261656243</v>
       </c>
       <c r="E6" t="n">
-        <v>21181.78806626719</v>
+        <v>20865.99409799869</v>
       </c>
       <c r="F6" t="n">
-        <v>161035.4579856288</v>
+        <v>160719.66401736</v>
       </c>
       <c r="G6" t="n">
-        <v>125141.3827954201</v>
+        <v>124960.802202771</v>
       </c>
       <c r="H6" t="n">
-        <v>173129.1546488239</v>
+        <v>172948.574056175</v>
       </c>
       <c r="I6" t="n">
-        <v>95036.53650778282</v>
+        <v>94954.20186977799</v>
       </c>
       <c r="J6" t="n">
-        <v>52663.49619341915</v>
+        <v>52581.16155541487</v>
       </c>
       <c r="K6" t="n">
-        <v>189258.2969993142</v>
+        <v>189175.9623613091</v>
       </c>
       <c r="L6" t="n">
-        <v>189258.2969993143</v>
+        <v>189175.9623613097</v>
       </c>
       <c r="M6" t="n">
-        <v>72531.36481213151</v>
+        <v>72449.03017412736</v>
       </c>
       <c r="N6" t="n">
-        <v>189258.296999314</v>
+        <v>189175.9623613097</v>
       </c>
       <c r="O6" t="n">
-        <v>177164.6003361187</v>
+        <v>176947.0523224947</v>
       </c>
       <c r="P6" t="n">
-        <v>177164.6003361186</v>
+        <v>176947.0523224947</v>
       </c>
     </row>
   </sheetData>
@@ -26758,28 +26758,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.35389382924299</v>
+        <v>87.35389382924315</v>
       </c>
       <c r="J3" t="n">
-        <v>87.35389382924288</v>
+        <v>87.35389382924313</v>
       </c>
       <c r="K3" t="n">
-        <v>87.35389382924288</v>
+        <v>87.35389382924313</v>
       </c>
       <c r="L3" t="n">
-        <v>87.35389382924288</v>
+        <v>87.35389382924313</v>
       </c>
       <c r="M3" t="n">
-        <v>87.35389382924288</v>
+        <v>87.35389382924313</v>
       </c>
       <c r="N3" t="n">
-        <v>87.35389382924271</v>
+        <v>87.35389382924308</v>
       </c>
       <c r="O3" t="n">
-        <v>87.35389382924271</v>
+        <v>87.35389382924308</v>
       </c>
       <c r="P3" t="n">
-        <v>87.35389382924271</v>
+        <v>87.35389382924308</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>990.4626818898347</v>
+        <v>990.4626818898344</v>
       </c>
       <c r="F4" t="n">
-        <v>990.4626818898347</v>
+        <v>990.4626818898344</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26825,7 +26825,7 @@
         <v>1272.593818973733</v>
       </c>
       <c r="N4" t="n">
-        <v>1272.593818973732</v>
+        <v>1272.593818973733</v>
       </c>
       <c r="O4" t="n">
         <v>1097.510279730782</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.35389382924299</v>
+        <v>87.35389382924315</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>468.3991115198091</v>
+        <v>468.3991115198089</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0835392429502</v>
+        <v>175.0835392429505</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.0475978409477</v>
+        <v>107.0475978409479</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>468.3991115198094</v>
+        <v>468.3991115198089</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>468.3991115198091</v>
+        <v>468.3991115198089</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0835392429502</v>
+        <v>175.0835392429505</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>125.6104543679508</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>11.75949205792756</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27441,7 +27441,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>120.3975017609125</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>142.0904386938127</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>258.4252165463165</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>238.1796410964095</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>8.163878602996448</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.56836874529853</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>57.59615060634749</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>178.2755692717854</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>144.9156891163807</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3511714324793686</v>
+        <v>0.3511714324793692</v>
       </c>
       <c r="H23" t="n">
-        <v>3.596434432879334</v>
+        <v>3.59643443287934</v>
       </c>
       <c r="I23" t="n">
-        <v>13.53853665066087</v>
+        <v>13.53853665066089</v>
       </c>
       <c r="J23" t="n">
-        <v>29.80523636739583</v>
+        <v>29.80523636739589</v>
       </c>
       <c r="K23" t="n">
-        <v>44.67032310424752</v>
+        <v>44.67032310424759</v>
       </c>
       <c r="L23" t="n">
-        <v>55.417485830988</v>
+        <v>55.4174858309881</v>
       </c>
       <c r="M23" t="n">
-        <v>61.66263079334297</v>
+        <v>61.66263079334308</v>
       </c>
       <c r="N23" t="n">
-        <v>62.66039662587498</v>
+        <v>62.66039662587509</v>
       </c>
       <c r="O23" t="n">
-        <v>59.16843569415825</v>
+        <v>59.16843569415836</v>
       </c>
       <c r="P23" t="n">
-        <v>50.49889095482384</v>
+        <v>50.49889095482393</v>
       </c>
       <c r="Q23" t="n">
-        <v>37.92256402915643</v>
+        <v>37.9225640291565</v>
       </c>
       <c r="R23" t="n">
-        <v>22.05927249548215</v>
+        <v>22.05927249548219</v>
       </c>
       <c r="S23" t="n">
-        <v>8.002319017623618</v>
+        <v>8.002319017623632</v>
       </c>
       <c r="T23" t="n">
-        <v>1.537252945678437</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U23" t="n">
-        <v>0.02809371459834948</v>
+        <v>0.02809371459834953</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1878932810666736</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H24" t="n">
-        <v>1.814653530301822</v>
+        <v>1.814653530301825</v>
       </c>
       <c r="I24" t="n">
-        <v>6.469132703392053</v>
+        <v>6.469132703392065</v>
       </c>
       <c r="J24" t="n">
-        <v>17.7517945941106</v>
+        <v>17.75179459411063</v>
       </c>
       <c r="K24" t="n">
-        <v>30.34064442557773</v>
+        <v>30.34064442557779</v>
       </c>
       <c r="L24" t="n">
-        <v>40.79674069827052</v>
+        <v>40.79674069827059</v>
       </c>
       <c r="M24" t="n">
-        <v>47.60787213693742</v>
+        <v>47.60787213693751</v>
       </c>
       <c r="N24" t="n">
-        <v>48.86791085075736</v>
+        <v>48.86791085075745</v>
       </c>
       <c r="O24" t="n">
-        <v>44.70459130712212</v>
+        <v>44.7045913071222</v>
       </c>
       <c r="P24" t="n">
-        <v>35.87937575035455</v>
+        <v>35.87937575035461</v>
       </c>
       <c r="Q24" t="n">
-        <v>23.98441250949329</v>
+        <v>23.98441250949333</v>
       </c>
       <c r="R24" t="n">
-        <v>11.665865292894</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S24" t="n">
-        <v>3.490035286479659</v>
+        <v>3.490035286479665</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7573417776327762</v>
+        <v>0.7573417776327775</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0123614000701759</v>
+        <v>0.01236140007017592</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1575234151019136</v>
+        <v>0.1575234151019139</v>
       </c>
       <c r="H25" t="n">
-        <v>1.400526363360651</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I25" t="n">
-        <v>4.737158701428457</v>
+        <v>4.737158701428466</v>
       </c>
       <c r="J25" t="n">
-        <v>11.13690544770529</v>
+        <v>11.13690544770531</v>
       </c>
       <c r="K25" t="n">
-        <v>18.30135677274959</v>
+        <v>18.30135677274962</v>
       </c>
       <c r="L25" t="n">
-        <v>23.41943573251541</v>
+        <v>23.41943573251545</v>
       </c>
       <c r="M25" t="n">
-        <v>24.69251133274814</v>
+        <v>24.69251133274819</v>
       </c>
       <c r="N25" t="n">
-        <v>24.10537860373194</v>
+        <v>24.10537860373198</v>
       </c>
       <c r="O25" t="n">
-        <v>22.2652187091323</v>
+        <v>22.26521870913234</v>
       </c>
       <c r="P25" t="n">
-        <v>19.05174104105325</v>
+        <v>19.05174104105328</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.19043796821569</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R25" t="n">
-        <v>7.082825555400585</v>
+        <v>7.082825555400597</v>
       </c>
       <c r="S25" t="n">
-        <v>2.745203515912438</v>
+        <v>2.745203515912443</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6730545917990851</v>
+        <v>0.6730545917990863</v>
       </c>
       <c r="U25" t="n">
-        <v>0.008592186278286205</v>
+        <v>0.00859218627828622</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3511714324793681</v>
+        <v>0.3511714324793691</v>
       </c>
       <c r="H26" t="n">
-        <v>3.596434432879329</v>
+        <v>3.59643443287934</v>
       </c>
       <c r="I26" t="n">
-        <v>13.53853665066085</v>
+        <v>13.53853665066089</v>
       </c>
       <c r="J26" t="n">
-        <v>29.80523636739579</v>
+        <v>29.80523636739588</v>
       </c>
       <c r="K26" t="n">
-        <v>44.67032310424745</v>
+        <v>44.67032310424759</v>
       </c>
       <c r="L26" t="n">
-        <v>55.41748583098793</v>
+        <v>55.41748583098809</v>
       </c>
       <c r="M26" t="n">
-        <v>61.66263079334288</v>
+        <v>61.66263079334307</v>
       </c>
       <c r="N26" t="n">
-        <v>62.6603966258749</v>
+        <v>62.66039662587508</v>
       </c>
       <c r="O26" t="n">
-        <v>59.16843569415818</v>
+        <v>59.16843569415835</v>
       </c>
       <c r="P26" t="n">
-        <v>50.49889095482377</v>
+        <v>50.49889095482391</v>
       </c>
       <c r="Q26" t="n">
-        <v>37.92256402915638</v>
+        <v>37.9225640291565</v>
       </c>
       <c r="R26" t="n">
-        <v>22.05927249548213</v>
+        <v>22.05927249548219</v>
       </c>
       <c r="S26" t="n">
-        <v>8.002319017623609</v>
+        <v>8.002319017623632</v>
       </c>
       <c r="T26" t="n">
-        <v>1.537252945678435</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U26" t="n">
-        <v>0.02809371459834944</v>
+        <v>0.02809371459834952</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1878932810666734</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H27" t="n">
-        <v>1.814653530301819</v>
+        <v>1.814653530301825</v>
       </c>
       <c r="I27" t="n">
-        <v>6.469132703392044</v>
+        <v>6.469132703392063</v>
       </c>
       <c r="J27" t="n">
-        <v>17.75179459411058</v>
+        <v>17.75179459411063</v>
       </c>
       <c r="K27" t="n">
-        <v>30.34064442557769</v>
+        <v>30.34064442557778</v>
       </c>
       <c r="L27" t="n">
-        <v>40.79674069827046</v>
+        <v>40.79674069827058</v>
       </c>
       <c r="M27" t="n">
-        <v>47.60787213693736</v>
+        <v>47.6078721369375</v>
       </c>
       <c r="N27" t="n">
-        <v>48.8679108507573</v>
+        <v>48.86791085075744</v>
       </c>
       <c r="O27" t="n">
-        <v>44.70459130712206</v>
+        <v>44.70459130712219</v>
       </c>
       <c r="P27" t="n">
-        <v>35.8793757503545</v>
+        <v>35.8793757503546</v>
       </c>
       <c r="Q27" t="n">
-        <v>23.98441250949325</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R27" t="n">
-        <v>11.66586529289399</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S27" t="n">
-        <v>3.490035286479654</v>
+        <v>3.490035286479665</v>
       </c>
       <c r="T27" t="n">
-        <v>0.7573417776327752</v>
+        <v>0.7573417776327774</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01236140007017588</v>
+        <v>0.01236140007017592</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1575234151019134</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H28" t="n">
-        <v>1.400526363360649</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I28" t="n">
-        <v>4.73715870142845</v>
+        <v>4.737158701428465</v>
       </c>
       <c r="J28" t="n">
-        <v>11.13690544770527</v>
+        <v>11.13690544770531</v>
       </c>
       <c r="K28" t="n">
-        <v>18.30135677274957</v>
+        <v>18.30135677274962</v>
       </c>
       <c r="L28" t="n">
-        <v>23.41943573251538</v>
+        <v>23.41943573251545</v>
       </c>
       <c r="M28" t="n">
-        <v>24.69251133274811</v>
+        <v>24.69251133274818</v>
       </c>
       <c r="N28" t="n">
-        <v>24.10537860373191</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O28" t="n">
-        <v>22.26521870913227</v>
+        <v>22.26521870913234</v>
       </c>
       <c r="P28" t="n">
-        <v>19.05174104105322</v>
+        <v>19.05174104105328</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.19043796821567</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R28" t="n">
-        <v>7.082825555400576</v>
+        <v>7.082825555400596</v>
       </c>
       <c r="S28" t="n">
-        <v>2.745203515912435</v>
+        <v>2.745203515912443</v>
       </c>
       <c r="T28" t="n">
-        <v>0.6730545917990842</v>
+        <v>0.6730545917990862</v>
       </c>
       <c r="U28" t="n">
-        <v>0.008592186278286194</v>
+        <v>0.008592186278286219</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3511714324793681</v>
+        <v>0.3511714324793691</v>
       </c>
       <c r="H29" t="n">
-        <v>3.596434432879329</v>
+        <v>3.59643443287934</v>
       </c>
       <c r="I29" t="n">
-        <v>13.53853665066085</v>
+        <v>13.53853665066089</v>
       </c>
       <c r="J29" t="n">
-        <v>29.80523636739579</v>
+        <v>29.80523636739588</v>
       </c>
       <c r="K29" t="n">
-        <v>44.67032310424745</v>
+        <v>44.67032310424759</v>
       </c>
       <c r="L29" t="n">
-        <v>55.41748583098793</v>
+        <v>55.41748583098809</v>
       </c>
       <c r="M29" t="n">
-        <v>61.66263079334288</v>
+        <v>61.66263079334307</v>
       </c>
       <c r="N29" t="n">
-        <v>62.6603966258749</v>
+        <v>62.66039662587508</v>
       </c>
       <c r="O29" t="n">
-        <v>59.16843569415818</v>
+        <v>59.16843569415835</v>
       </c>
       <c r="P29" t="n">
-        <v>50.49889095482377</v>
+        <v>50.49889095482391</v>
       </c>
       <c r="Q29" t="n">
-        <v>37.92256402915638</v>
+        <v>37.9225640291565</v>
       </c>
       <c r="R29" t="n">
-        <v>22.05927249548213</v>
+        <v>22.05927249548219</v>
       </c>
       <c r="S29" t="n">
-        <v>8.002319017623609</v>
+        <v>8.002319017623632</v>
       </c>
       <c r="T29" t="n">
-        <v>1.537252945678435</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U29" t="n">
-        <v>0.02809371459834944</v>
+        <v>0.02809371459834952</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1878932810666734</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H30" t="n">
-        <v>1.814653530301819</v>
+        <v>1.814653530301825</v>
       </c>
       <c r="I30" t="n">
-        <v>6.469132703392044</v>
+        <v>6.469132703392063</v>
       </c>
       <c r="J30" t="n">
-        <v>17.75179459411058</v>
+        <v>17.75179459411063</v>
       </c>
       <c r="K30" t="n">
-        <v>30.34064442557769</v>
+        <v>30.34064442557778</v>
       </c>
       <c r="L30" t="n">
-        <v>40.79674069827046</v>
+        <v>40.79674069827058</v>
       </c>
       <c r="M30" t="n">
-        <v>47.60787213693736</v>
+        <v>47.6078721369375</v>
       </c>
       <c r="N30" t="n">
-        <v>48.8679108507573</v>
+        <v>48.86791085075744</v>
       </c>
       <c r="O30" t="n">
-        <v>44.70459130712206</v>
+        <v>44.70459130712219</v>
       </c>
       <c r="P30" t="n">
-        <v>35.8793757503545</v>
+        <v>35.8793757503546</v>
       </c>
       <c r="Q30" t="n">
-        <v>23.98441250949325</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R30" t="n">
-        <v>11.66586529289399</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S30" t="n">
-        <v>3.490035286479654</v>
+        <v>3.490035286479665</v>
       </c>
       <c r="T30" t="n">
-        <v>0.7573417776327752</v>
+        <v>0.7573417776327774</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01236140007017588</v>
+        <v>0.01236140007017592</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1575234151019134</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H31" t="n">
-        <v>1.400526363360649</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I31" t="n">
-        <v>4.73715870142845</v>
+        <v>4.737158701428465</v>
       </c>
       <c r="J31" t="n">
-        <v>11.13690544770527</v>
+        <v>11.13690544770531</v>
       </c>
       <c r="K31" t="n">
-        <v>18.30135677274957</v>
+        <v>18.30135677274962</v>
       </c>
       <c r="L31" t="n">
-        <v>23.41943573251538</v>
+        <v>23.41943573251545</v>
       </c>
       <c r="M31" t="n">
-        <v>24.69251133274811</v>
+        <v>24.69251133274818</v>
       </c>
       <c r="N31" t="n">
-        <v>24.10537860373191</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O31" t="n">
-        <v>22.26521870913227</v>
+        <v>22.26521870913234</v>
       </c>
       <c r="P31" t="n">
-        <v>19.05174104105322</v>
+        <v>19.05174104105328</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.19043796821567</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R31" t="n">
-        <v>7.082825555400576</v>
+        <v>7.082825555400596</v>
       </c>
       <c r="S31" t="n">
-        <v>2.745203515912435</v>
+        <v>2.745203515912443</v>
       </c>
       <c r="T31" t="n">
-        <v>0.6730545917990842</v>
+        <v>0.6730545917990862</v>
       </c>
       <c r="U31" t="n">
-        <v>0.008592186278286194</v>
+        <v>0.008592186278286219</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3511714324793681</v>
+        <v>0.3511714324793691</v>
       </c>
       <c r="H32" t="n">
-        <v>3.596434432879329</v>
+        <v>3.59643443287934</v>
       </c>
       <c r="I32" t="n">
-        <v>13.53853665066085</v>
+        <v>13.53853665066089</v>
       </c>
       <c r="J32" t="n">
-        <v>29.80523636739579</v>
+        <v>29.80523636739588</v>
       </c>
       <c r="K32" t="n">
-        <v>44.67032310424745</v>
+        <v>44.67032310424759</v>
       </c>
       <c r="L32" t="n">
-        <v>55.41748583098793</v>
+        <v>55.41748583098809</v>
       </c>
       <c r="M32" t="n">
-        <v>61.66263079334288</v>
+        <v>61.66263079334307</v>
       </c>
       <c r="N32" t="n">
-        <v>62.6603966258749</v>
+        <v>62.66039662587508</v>
       </c>
       <c r="O32" t="n">
-        <v>59.16843569415818</v>
+        <v>59.16843569415835</v>
       </c>
       <c r="P32" t="n">
-        <v>50.49889095482377</v>
+        <v>50.49889095482391</v>
       </c>
       <c r="Q32" t="n">
-        <v>37.92256402915638</v>
+        <v>37.9225640291565</v>
       </c>
       <c r="R32" t="n">
-        <v>22.05927249548213</v>
+        <v>22.05927249548219</v>
       </c>
       <c r="S32" t="n">
-        <v>8.002319017623609</v>
+        <v>8.002319017623632</v>
       </c>
       <c r="T32" t="n">
-        <v>1.537252945678435</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02809371459834944</v>
+        <v>0.02809371459834952</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1878932810666734</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H33" t="n">
-        <v>1.814653530301819</v>
+        <v>1.814653530301825</v>
       </c>
       <c r="I33" t="n">
-        <v>6.469132703392044</v>
+        <v>6.469132703392063</v>
       </c>
       <c r="J33" t="n">
-        <v>17.75179459411058</v>
+        <v>17.75179459411063</v>
       </c>
       <c r="K33" t="n">
-        <v>30.34064442557769</v>
+        <v>30.34064442557778</v>
       </c>
       <c r="L33" t="n">
-        <v>40.79674069827046</v>
+        <v>40.79674069827058</v>
       </c>
       <c r="M33" t="n">
-        <v>47.60787213693736</v>
+        <v>47.6078721369375</v>
       </c>
       <c r="N33" t="n">
-        <v>48.8679108507573</v>
+        <v>48.86791085075744</v>
       </c>
       <c r="O33" t="n">
-        <v>44.70459130712206</v>
+        <v>44.70459130712219</v>
       </c>
       <c r="P33" t="n">
-        <v>35.8793757503545</v>
+        <v>35.8793757503546</v>
       </c>
       <c r="Q33" t="n">
-        <v>23.98441250949325</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R33" t="n">
-        <v>11.66586529289399</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S33" t="n">
-        <v>3.490035286479654</v>
+        <v>3.490035286479665</v>
       </c>
       <c r="T33" t="n">
-        <v>0.7573417776327752</v>
+        <v>0.7573417776327774</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01236140007017588</v>
+        <v>0.01236140007017592</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1575234151019134</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H34" t="n">
-        <v>1.400526363360649</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I34" t="n">
-        <v>4.73715870142845</v>
+        <v>4.737158701428465</v>
       </c>
       <c r="J34" t="n">
-        <v>11.13690544770527</v>
+        <v>11.13690544770531</v>
       </c>
       <c r="K34" t="n">
-        <v>18.30135677274957</v>
+        <v>18.30135677274962</v>
       </c>
       <c r="L34" t="n">
-        <v>23.41943573251538</v>
+        <v>23.41943573251545</v>
       </c>
       <c r="M34" t="n">
-        <v>24.69251133274811</v>
+        <v>24.69251133274818</v>
       </c>
       <c r="N34" t="n">
-        <v>24.10537860373191</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O34" t="n">
-        <v>22.26521870913227</v>
+        <v>22.26521870913234</v>
       </c>
       <c r="P34" t="n">
-        <v>19.05174104105322</v>
+        <v>19.05174104105328</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.19043796821567</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R34" t="n">
-        <v>7.082825555400576</v>
+        <v>7.082825555400596</v>
       </c>
       <c r="S34" t="n">
-        <v>2.745203515912435</v>
+        <v>2.745203515912443</v>
       </c>
       <c r="T34" t="n">
-        <v>0.6730545917990842</v>
+        <v>0.6730545917990862</v>
       </c>
       <c r="U34" t="n">
-        <v>0.008592186278286194</v>
+        <v>0.008592186278286219</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.3511714324793681</v>
+        <v>0.3511714324793691</v>
       </c>
       <c r="H35" t="n">
-        <v>3.596434432879329</v>
+        <v>3.59643443287934</v>
       </c>
       <c r="I35" t="n">
-        <v>13.53853665066085</v>
+        <v>13.53853665066089</v>
       </c>
       <c r="J35" t="n">
-        <v>29.80523636739579</v>
+        <v>29.80523636739588</v>
       </c>
       <c r="K35" t="n">
-        <v>44.67032310424745</v>
+        <v>44.67032310424759</v>
       </c>
       <c r="L35" t="n">
-        <v>55.41748583098793</v>
+        <v>55.41748583098809</v>
       </c>
       <c r="M35" t="n">
-        <v>61.66263079334288</v>
+        <v>61.66263079334307</v>
       </c>
       <c r="N35" t="n">
-        <v>62.6603966258749</v>
+        <v>62.66039662587508</v>
       </c>
       <c r="O35" t="n">
-        <v>59.16843569415818</v>
+        <v>59.16843569415835</v>
       </c>
       <c r="P35" t="n">
-        <v>50.49889095482377</v>
+        <v>50.49889095482391</v>
       </c>
       <c r="Q35" t="n">
-        <v>37.92256402915638</v>
+        <v>37.9225640291565</v>
       </c>
       <c r="R35" t="n">
-        <v>22.05927249548213</v>
+        <v>22.05927249548219</v>
       </c>
       <c r="S35" t="n">
-        <v>8.002319017623609</v>
+        <v>8.002319017623632</v>
       </c>
       <c r="T35" t="n">
-        <v>1.537252945678435</v>
+        <v>1.537252945678439</v>
       </c>
       <c r="U35" t="n">
-        <v>0.02809371459834944</v>
+        <v>0.02809371459834952</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1878932810666734</v>
+        <v>0.1878932810666739</v>
       </c>
       <c r="H36" t="n">
-        <v>1.814653530301819</v>
+        <v>1.814653530301825</v>
       </c>
       <c r="I36" t="n">
-        <v>6.469132703392044</v>
+        <v>6.469132703392063</v>
       </c>
       <c r="J36" t="n">
-        <v>17.75179459411058</v>
+        <v>17.75179459411063</v>
       </c>
       <c r="K36" t="n">
-        <v>30.34064442557769</v>
+        <v>30.34064442557778</v>
       </c>
       <c r="L36" t="n">
-        <v>40.79674069827046</v>
+        <v>40.79674069827058</v>
       </c>
       <c r="M36" t="n">
-        <v>47.60787213693736</v>
+        <v>47.6078721369375</v>
       </c>
       <c r="N36" t="n">
-        <v>48.8679108507573</v>
+        <v>48.86791085075744</v>
       </c>
       <c r="O36" t="n">
-        <v>44.70459130712206</v>
+        <v>44.70459130712219</v>
       </c>
       <c r="P36" t="n">
-        <v>35.8793757503545</v>
+        <v>35.8793757503546</v>
       </c>
       <c r="Q36" t="n">
-        <v>23.98441250949325</v>
+        <v>23.98441250949332</v>
       </c>
       <c r="R36" t="n">
-        <v>11.66586529289399</v>
+        <v>11.66586529289402</v>
       </c>
       <c r="S36" t="n">
-        <v>3.490035286479654</v>
+        <v>3.490035286479665</v>
       </c>
       <c r="T36" t="n">
-        <v>0.7573417776327752</v>
+        <v>0.7573417776327774</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01236140007017588</v>
+        <v>0.01236140007017592</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1575234151019134</v>
+        <v>0.1575234151019138</v>
       </c>
       <c r="H37" t="n">
-        <v>1.400526363360649</v>
+        <v>1.400526363360653</v>
       </c>
       <c r="I37" t="n">
-        <v>4.73715870142845</v>
+        <v>4.737158701428465</v>
       </c>
       <c r="J37" t="n">
-        <v>11.13690544770527</v>
+        <v>11.13690544770531</v>
       </c>
       <c r="K37" t="n">
-        <v>18.30135677274957</v>
+        <v>18.30135677274962</v>
       </c>
       <c r="L37" t="n">
-        <v>23.41943573251538</v>
+        <v>23.41943573251545</v>
       </c>
       <c r="M37" t="n">
-        <v>24.69251133274811</v>
+        <v>24.69251133274818</v>
       </c>
       <c r="N37" t="n">
-        <v>24.10537860373191</v>
+        <v>24.10537860373197</v>
       </c>
       <c r="O37" t="n">
-        <v>22.26521870913227</v>
+        <v>22.26521870913234</v>
       </c>
       <c r="P37" t="n">
-        <v>19.05174104105322</v>
+        <v>19.05174104105328</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.19043796821567</v>
+        <v>13.19043796821571</v>
       </c>
       <c r="R37" t="n">
-        <v>7.082825555400576</v>
+        <v>7.082825555400596</v>
       </c>
       <c r="S37" t="n">
-        <v>2.745203515912435</v>
+        <v>2.745203515912443</v>
       </c>
       <c r="T37" t="n">
-        <v>0.6730545917990842</v>
+        <v>0.6730545917990862</v>
       </c>
       <c r="U37" t="n">
-        <v>0.008592186278286194</v>
+        <v>0.008592186278286219</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3511714324793674</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H38" t="n">
-        <v>3.596434432879323</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I38" t="n">
-        <v>13.53853665066083</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J38" t="n">
-        <v>29.80523636739574</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K38" t="n">
-        <v>44.67032310424737</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L38" t="n">
-        <v>55.41748583098782</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M38" t="n">
-        <v>61.66263079334276</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N38" t="n">
-        <v>62.66039662587477</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O38" t="n">
-        <v>59.16843569415806</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P38" t="n">
-        <v>50.49889095482367</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q38" t="n">
-        <v>37.92256402915631</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R38" t="n">
-        <v>22.05927249548208</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S38" t="n">
-        <v>8.002319017623593</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T38" t="n">
-        <v>1.537252945678432</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U38" t="n">
-        <v>0.02809371459834939</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.187893281066673</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H39" t="n">
-        <v>1.814653530301816</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I39" t="n">
-        <v>6.469132703392032</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J39" t="n">
-        <v>17.75179459411054</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K39" t="n">
-        <v>30.34064442557763</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L39" t="n">
-        <v>40.79674069827038</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M39" t="n">
-        <v>47.60787213693727</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N39" t="n">
-        <v>48.86791085075721</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O39" t="n">
-        <v>44.70459130712197</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P39" t="n">
-        <v>35.87937575035443</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q39" t="n">
-        <v>23.98441250949321</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R39" t="n">
-        <v>11.66586529289397</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S39" t="n">
-        <v>3.490035286479647</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T39" t="n">
-        <v>0.7573417776327738</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01236140007017586</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1575234151019131</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H40" t="n">
-        <v>1.400526363360646</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I40" t="n">
-        <v>4.737158701428442</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J40" t="n">
-        <v>11.13690544770525</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K40" t="n">
-        <v>18.30135677274953</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L40" t="n">
-        <v>23.41943573251533</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M40" t="n">
-        <v>24.69251133274806</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N40" t="n">
-        <v>24.10537860373186</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O40" t="n">
-        <v>22.26521870913223</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P40" t="n">
-        <v>19.05174104105319</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.19043796821565</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R40" t="n">
-        <v>7.082825555400562</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S40" t="n">
-        <v>2.745203515912429</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T40" t="n">
-        <v>0.6730545917990829</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U40" t="n">
-        <v>0.008592186278286177</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3511714324793674</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H41" t="n">
-        <v>3.596434432879323</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I41" t="n">
-        <v>13.53853665066083</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J41" t="n">
-        <v>29.80523636739574</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K41" t="n">
-        <v>44.67032310424737</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L41" t="n">
-        <v>55.41748583098782</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M41" t="n">
-        <v>61.66263079334276</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N41" t="n">
-        <v>62.66039662587477</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O41" t="n">
-        <v>59.16843569415806</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P41" t="n">
-        <v>50.49889095482367</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q41" t="n">
-        <v>37.92256402915631</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R41" t="n">
-        <v>22.05927249548208</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S41" t="n">
-        <v>8.002319017623593</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T41" t="n">
-        <v>1.537252945678432</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U41" t="n">
-        <v>0.02809371459834939</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.187893281066673</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H42" t="n">
-        <v>1.814653530301816</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I42" t="n">
-        <v>6.469132703392032</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J42" t="n">
-        <v>17.75179459411054</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K42" t="n">
-        <v>30.34064442557763</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L42" t="n">
-        <v>40.79674069827038</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M42" t="n">
-        <v>47.60787213693727</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N42" t="n">
-        <v>48.86791085075721</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O42" t="n">
-        <v>44.70459130712197</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P42" t="n">
-        <v>35.87937575035443</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q42" t="n">
-        <v>23.98441250949321</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R42" t="n">
-        <v>11.66586529289397</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S42" t="n">
-        <v>3.490035286479647</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T42" t="n">
-        <v>0.7573417776327738</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01236140007017586</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1575234151019131</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H43" t="n">
-        <v>1.400526363360646</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I43" t="n">
-        <v>4.737158701428442</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J43" t="n">
-        <v>11.13690544770525</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K43" t="n">
-        <v>18.30135677274953</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L43" t="n">
-        <v>23.41943573251533</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M43" t="n">
-        <v>24.69251133274806</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N43" t="n">
-        <v>24.10537860373186</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O43" t="n">
-        <v>22.26521870913223</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P43" t="n">
-        <v>19.05174104105319</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.19043796821565</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R43" t="n">
-        <v>7.082825555400562</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S43" t="n">
-        <v>2.745203515912429</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T43" t="n">
-        <v>0.6730545917990829</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U43" t="n">
-        <v>0.008592186278286177</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3511714324793674</v>
+        <v>0.3511714324793689</v>
       </c>
       <c r="H44" t="n">
-        <v>3.596434432879323</v>
+        <v>3.596434432879338</v>
       </c>
       <c r="I44" t="n">
-        <v>13.53853665066083</v>
+        <v>13.53853665066088</v>
       </c>
       <c r="J44" t="n">
-        <v>29.80523636739574</v>
+        <v>29.80523636739586</v>
       </c>
       <c r="K44" t="n">
-        <v>44.67032310424737</v>
+        <v>44.67032310424756</v>
       </c>
       <c r="L44" t="n">
-        <v>55.41748583098782</v>
+        <v>55.41748583098806</v>
       </c>
       <c r="M44" t="n">
-        <v>61.66263079334276</v>
+        <v>61.66263079334303</v>
       </c>
       <c r="N44" t="n">
-        <v>62.66039662587477</v>
+        <v>62.66039662587504</v>
       </c>
       <c r="O44" t="n">
-        <v>59.16843569415806</v>
+        <v>59.16843569415831</v>
       </c>
       <c r="P44" t="n">
-        <v>50.49889095482367</v>
+        <v>50.49889095482389</v>
       </c>
       <c r="Q44" t="n">
-        <v>37.92256402915631</v>
+        <v>37.92256402915648</v>
       </c>
       <c r="R44" t="n">
-        <v>22.05927249548208</v>
+        <v>22.05927249548218</v>
       </c>
       <c r="S44" t="n">
-        <v>8.002319017623593</v>
+        <v>8.002319017623627</v>
       </c>
       <c r="T44" t="n">
-        <v>1.537252945678432</v>
+        <v>1.537252945678438</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02809371459834939</v>
+        <v>0.0280937145983495</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.187893281066673</v>
+        <v>0.1878932810666738</v>
       </c>
       <c r="H45" t="n">
-        <v>1.814653530301816</v>
+        <v>1.814653530301823</v>
       </c>
       <c r="I45" t="n">
-        <v>6.469132703392032</v>
+        <v>6.469132703392059</v>
       </c>
       <c r="J45" t="n">
-        <v>17.75179459411054</v>
+        <v>17.75179459411062</v>
       </c>
       <c r="K45" t="n">
-        <v>30.34064442557763</v>
+        <v>30.34064442557776</v>
       </c>
       <c r="L45" t="n">
-        <v>40.79674069827038</v>
+        <v>40.79674069827055</v>
       </c>
       <c r="M45" t="n">
-        <v>47.60787213693727</v>
+        <v>47.60787213693747</v>
       </c>
       <c r="N45" t="n">
-        <v>48.86791085075721</v>
+        <v>48.86791085075741</v>
       </c>
       <c r="O45" t="n">
-        <v>44.70459130712197</v>
+        <v>44.70459130712216</v>
       </c>
       <c r="P45" t="n">
-        <v>35.87937575035443</v>
+        <v>35.87937575035458</v>
       </c>
       <c r="Q45" t="n">
-        <v>23.98441250949321</v>
+        <v>23.98441250949331</v>
       </c>
       <c r="R45" t="n">
-        <v>11.66586529289397</v>
+        <v>11.66586529289401</v>
       </c>
       <c r="S45" t="n">
-        <v>3.490035286479647</v>
+        <v>3.490035286479662</v>
       </c>
       <c r="T45" t="n">
-        <v>0.7573417776327738</v>
+        <v>0.757341777632777</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01236140007017586</v>
+        <v>0.01236140007017591</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1575234151019131</v>
+        <v>0.1575234151019137</v>
       </c>
       <c r="H46" t="n">
-        <v>1.400526363360646</v>
+        <v>1.400526363360652</v>
       </c>
       <c r="I46" t="n">
-        <v>4.737158701428442</v>
+        <v>4.737158701428462</v>
       </c>
       <c r="J46" t="n">
-        <v>11.13690544770525</v>
+        <v>11.1369054477053</v>
       </c>
       <c r="K46" t="n">
-        <v>18.30135677274953</v>
+        <v>18.30135677274961</v>
       </c>
       <c r="L46" t="n">
-        <v>23.41943573251533</v>
+        <v>23.41943573251543</v>
       </c>
       <c r="M46" t="n">
-        <v>24.69251133274806</v>
+        <v>24.69251133274816</v>
       </c>
       <c r="N46" t="n">
-        <v>24.10537860373186</v>
+        <v>24.10537860373196</v>
       </c>
       <c r="O46" t="n">
-        <v>22.26521870913223</v>
+        <v>22.26521870913232</v>
       </c>
       <c r="P46" t="n">
-        <v>19.05174104105319</v>
+        <v>19.05174104105327</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.19043796821565</v>
+        <v>13.1904379682157</v>
       </c>
       <c r="R46" t="n">
-        <v>7.082825555400562</v>
+        <v>7.082825555400592</v>
       </c>
       <c r="S46" t="n">
-        <v>2.745203515912429</v>
+        <v>2.745203515912441</v>
       </c>
       <c r="T46" t="n">
-        <v>0.6730545917990829</v>
+        <v>0.6730545917990858</v>
       </c>
       <c r="U46" t="n">
-        <v>0.008592186278286177</v>
+        <v>0.008592186278286213</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>117.7337452574857</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491205</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>176.5650354103358</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>40.55973291537929</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
@@ -35187,7 +35187,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793177</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7337452574859</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35412,10 +35412,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>570.1246738271841</v>
+        <v>26.52921816148624</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>26.52921816148624</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35664,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>463.3660081206035</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>328.3029864149263</v>
+        <v>278.8496521518733</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>499.6489601498184</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>448.7789367637054</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>29.85810036629282</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>560.4979811393954</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K23" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L23" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M23" t="n">
-        <v>845.8228237143065</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N23" t="n">
-        <v>823.4493023214487</v>
+        <v>823.4493023214488</v>
       </c>
       <c r="O23" t="n">
-        <v>709.3006138932541</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P23" t="n">
         <v>585.0006060246739</v>
@@ -36381,7 +36381,7 @@
         <v>362.3276213981383</v>
       </c>
       <c r="R23" t="n">
-        <v>63.02558127282035</v>
+        <v>63.02558127282039</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>490.7510042895159</v>
       </c>
       <c r="L24" t="n">
-        <v>708.5625709197737</v>
+        <v>708.5625709197739</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>931.3508321756239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>414.2574834601088</v>
+        <v>755.7723595352983</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>99.0849518109183</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.36170282670582</v>
+        <v>25.36170282670584</v>
       </c>
       <c r="K25" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L25" t="n">
-        <v>285.9417592477281</v>
+        <v>285.9417592477282</v>
       </c>
       <c r="M25" t="n">
-        <v>316.878426929206</v>
+        <v>316.8784269292061</v>
       </c>
       <c r="N25" t="n">
-        <v>307.7809163757019</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O25" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P25" t="n">
         <v>226.8047109901567</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.38036706166098</v>
+        <v>79.380367061661</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K26" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L26" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M26" t="n">
-        <v>845.8228237143064</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N26" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214488</v>
       </c>
       <c r="O26" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0006060246737</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q26" t="n">
-        <v>362.3276213981382</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R26" t="n">
-        <v>63.02558127282033</v>
+        <v>63.02558127282039</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>399.2986541816883</v>
+        <v>490.7510042895159</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>899.0998728385198</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>755.7723595352982</v>
+        <v>755.7723595352983</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>430.2848630656601</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.3617028267058</v>
+        <v>25.36170282670584</v>
       </c>
       <c r="K28" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L28" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477282</v>
       </c>
       <c r="M28" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N28" t="n">
-        <v>307.7809163757018</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O28" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P28" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.38036706166096</v>
+        <v>79.380367061661</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K29" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L29" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M29" t="n">
-        <v>845.8228237143064</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N29" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214488</v>
       </c>
       <c r="O29" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0006060246737</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q29" t="n">
-        <v>362.3276213981382</v>
+        <v>362.3276213981387</v>
       </c>
       <c r="R29" t="n">
-        <v>63.02558127282033</v>
+        <v>63.02558127282039</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>490.7510042895159</v>
       </c>
       <c r="L30" t="n">
-        <v>708.5625709197737</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>899.0998728385198</v>
+        <v>328.7619350304744</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>446.5084427972128</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>25.3617028267058</v>
+        <v>25.36170282670584</v>
       </c>
       <c r="K31" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L31" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477282</v>
       </c>
       <c r="M31" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N31" t="n">
-        <v>307.7809163757018</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O31" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P31" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.38036706166096</v>
+        <v>79.380367061661</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K32" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L32" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M32" t="n">
-        <v>845.8228237143064</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N32" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214488</v>
       </c>
       <c r="O32" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0006060246737</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q32" t="n">
-        <v>362.3276213981382</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R32" t="n">
-        <v>63.02558127282033</v>
+        <v>63.02558127282039</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K33" t="n">
-        <v>69.14578313218084</v>
+        <v>490.7510042895159</v>
       </c>
       <c r="L33" t="n">
-        <v>708.5625709197737</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>899.0998728385198</v>
+        <v>328.7619350304744</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q33" t="n">
-        <v>377.362659665032</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>25.3617028267058</v>
+        <v>25.36170282670584</v>
       </c>
       <c r="K34" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L34" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477282</v>
       </c>
       <c r="M34" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N34" t="n">
-        <v>307.7809163757018</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O34" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P34" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.38036706166096</v>
+        <v>79.380367061661</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K35" t="n">
-        <v>588.2657787699439</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L35" t="n">
-        <v>775.2067785706223</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M35" t="n">
-        <v>845.8228237143064</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N35" t="n">
-        <v>823.4493023214486</v>
+        <v>823.4493023214488</v>
       </c>
       <c r="O35" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0006060246737</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q35" t="n">
-        <v>362.3276213981382</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R35" t="n">
-        <v>63.02558127282033</v>
+        <v>63.02558127282039</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>212.5122567785887</v>
       </c>
       <c r="K36" t="n">
-        <v>490.7510042895158</v>
+        <v>490.7510042895159</v>
       </c>
       <c r="L36" t="n">
-        <v>708.5625709197737</v>
+        <v>328.7619350304744</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>603.2590651327081</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q36" t="n">
-        <v>251.5982462135087</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>41.52396565918684</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>25.3617028267058</v>
+        <v>25.36170282670584</v>
       </c>
       <c r="K37" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L37" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477282</v>
       </c>
       <c r="M37" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N37" t="n">
-        <v>307.7809163757018</v>
+        <v>307.780916375702</v>
       </c>
       <c r="O37" t="n">
-        <v>284.4476533823385</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P37" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.38036706166096</v>
+        <v>79.380367061661</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>286.5582378499759</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K38" t="n">
-        <v>588.2657787699438</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L38" t="n">
-        <v>775.2067785706222</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M38" t="n">
-        <v>845.8228237143063</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N38" t="n">
-        <v>823.4493023214485</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O38" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0006060246736</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q38" t="n">
-        <v>362.3276213981381</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R38" t="n">
-        <v>63.02558127282028</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>212.5122567785886</v>
       </c>
       <c r="K39" t="n">
-        <v>11.20792476277424</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.2859006896616</v>
       </c>
       <c r="M39" t="n">
-        <v>899.0998728385198</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>931.3508321756237</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.36170282670578</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K40" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L40" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M40" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N40" t="n">
-        <v>307.7809163757018</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O40" t="n">
-        <v>284.4476533823384</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P40" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.38036706166093</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K41" t="n">
-        <v>588.2657787699438</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L41" t="n">
-        <v>775.2067785706222</v>
+        <v>81.94670399247474</v>
       </c>
       <c r="M41" t="n">
-        <v>845.8228237143063</v>
+        <v>845.8228237143067</v>
       </c>
       <c r="N41" t="n">
-        <v>823.4493023214485</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O41" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P41" t="n">
-        <v>585.0006060246736</v>
+        <v>585.0006060246739</v>
       </c>
       <c r="Q41" t="n">
-        <v>18.6513659427883</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.2859006896614</v>
       </c>
       <c r="M42" t="n">
-        <v>899.0998728385198</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>931.3508321756237</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>223.7201815413631</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>25.36170282670578</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K43" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L43" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M43" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N43" t="n">
-        <v>307.7809163757018</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O43" t="n">
-        <v>284.4476533823384</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P43" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.38036706166093</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>286.558237849976</v>
       </c>
       <c r="K44" t="n">
-        <v>588.2657787699438</v>
+        <v>588.2657787699441</v>
       </c>
       <c r="L44" t="n">
-        <v>368.5049418424521</v>
+        <v>775.2067785706224</v>
       </c>
       <c r="M44" t="n">
-        <v>845.8228237143063</v>
+        <v>737.5633551608331</v>
       </c>
       <c r="N44" t="n">
-        <v>823.4493023214485</v>
+        <v>823.4493023214487</v>
       </c>
       <c r="O44" t="n">
-        <v>709.300613893254</v>
+        <v>709.3006138932542</v>
       </c>
       <c r="P44" t="n">
-        <v>585.0006060246736</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>362.3276213981381</v>
+        <v>362.3276213981383</v>
       </c>
       <c r="R44" t="n">
-        <v>63.02558127282028</v>
+        <v>63.02558127282038</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>212.5122567785886</v>
       </c>
       <c r="K45" t="n">
-        <v>490.7510042895157</v>
+        <v>490.7510042895158</v>
       </c>
       <c r="L45" t="n">
-        <v>708.5625709197736</v>
+        <v>370.2859006896614</v>
       </c>
       <c r="M45" t="n">
-        <v>854.8573113462176</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>603.2590651327082</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>377.3626596650321</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>25.36170282670578</v>
+        <v>25.36170282670583</v>
       </c>
       <c r="K46" t="n">
         <v>174.4148191184445</v>
       </c>
       <c r="L46" t="n">
-        <v>285.941759247728</v>
+        <v>285.9417592477281</v>
       </c>
       <c r="M46" t="n">
-        <v>316.8784269292059</v>
+        <v>316.878426929206</v>
       </c>
       <c r="N46" t="n">
-        <v>307.7809163757018</v>
+        <v>307.7809163757019</v>
       </c>
       <c r="O46" t="n">
-        <v>284.4476533823384</v>
+        <v>284.4476533823386</v>
       </c>
       <c r="P46" t="n">
-        <v>226.8047109901566</v>
+        <v>226.8047109901567</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.38036706166093</v>
+        <v>79.38036706166099</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
